--- a/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. The hearing will come to order.    I will ask all the members to take their seats at this time. Today the committee continues to examine the Obama administration's nuclear diplomacy with Iran as we get set for a congressional review of a possible, and hugely consequential, agreement.    As we speak, U.S. negotiators in Vienna face another deadline. While we don't have an agreement in front of us, we know the troubling outline taking shape. Just a few months ago, 367 Members of Congress signed a letter, Ranking Member Engel and I led stating that any final agreement must last for multiple decades and include full disclosure of Iran's past efforts to build a nuclear weapon, must include a dramatic reduction in the number of centrifuges, and, most importantly, intrusive inspection and verification measures.    A few weeks ago, several of President Obama's former advisers signed an open letter echoing these same concerns and warned that these negotiations may fall short of meeting the administration's own standard of a ``good'' agreement. Indeed, one witness with us today wrote back when these negotiations began, that a ``good enough'' agreement would have Iran giving up ``all but a minimal enrichment capacity,'' agree to intrusive inspections, and would be an agreement that could guarantee the reimposition of sanctions.    But that is not even close to where the negotiations are right now. The ``most robust and intensive inspections,'' and this was the original goal, ``the most robust and intrusive inspections and transparency regime ever negotiated for any nuclear program in history,'' has morphed instead into an agreement of what is now discussed as ``managed access'' with the Iranians having a big say in where international inspectors can go, where international inspectors cannot go. ``Managed access'' is a big back away from the ``anywhere, anytime'' terms that the administration once demanded.    But to be clear, under this agreement, Iran doesn't even have to cheat to be a few steps away from the bomb. Iran is not required to dismantle key bomb-making technology; it is permitted a vast enrichment capacity and it is allowed to continue its research and development to gain an industrialized nuclear program once the agreement begins to expire in as little as 10 years. That is hardly the original concept of ``decades'' of a long-range agreement. And, frankly, it is hardly ``all but minimal enrichment'' that was the original goal as well.    Meanwhile, Iran continues to develop its ballistic missile capabilities. After Iran's Supreme Leader called demands to restrict its missile program a ``stupid, idiotic expectation,'' in his words, U.S. negotiators backed off this key demand. Instead, Iran is still able to ``mass produce'' its ballistic missiles as the Supreme Leader has ordered. If you will recall his quote at the time, he said it is the responsibility of every military man to figure out how to help mass produce ICBMs. We ought to be concerned, really concerned about that attitude, and some of his additional suggestions about what he would like to do to the United States. One witness told the committee last month that, ``no country that has not aspired to possess nuclear weapons has ever opted to sustain'' a costly, long-range missile program. Already, U.S. intelligence estimates Iran to have the largest arsenal of ballistic missiles in the entire Middle East. Simply put, countries build ICBMs to have the capability to deliver nukes.    Not to mention that the terrorist state of Iran will be flush with cash. Reportedly, Iran will receive somewhere in the range of $50 billion under this agreement upfront; $150 billion over the entire length of the agreement. Now, that would be 25 times the annual budget of Iran's Revolutionary Guard Corps. Such a huge amount will breathe life into Iran's economy, but it will also fund a new generation of terrorism in the region and beyond. We should be worried when Iran announces, as they recently did, that they will help rebuild the tunnels in Gaza, that they will transfer missiles to Hamas, and recently that they will provide 100,000 rockets and missiles for Hezbollah with new technology which will allow precision guidance systems so that those rockets and missiles can hit targets across Israel.    At every step in this process, whether it is enrichment capacity, missile development, or sanctions relief, the Obama administration has discounted the fundamental nature of the regime in Iran. ``Death to America'' isn't domestic spin in Iran--it is the regime's rallying cry. And tomorrow, on Friday, they will once again celebrate Quds Day. Since 1979, since the foundation of the revolution, that is the day they set aside to celebrate for the destruction of Israel.    As one witness concludes, ``President Obama is agreeing to dismantle of sanctions regime--permanently. In return, Iran is agreeing to slow the development of its nuclear program--temporarily.'' That is a bad deal for us: Permanent concessions in exchange for temporary benefits, and that is only if Iran doesn't cheat, like North Korea cheated. So Iran is left a few steps away from the bomb and more able to dominate the region. This is my take on this. How does that make us and our allies more secure or conflict less likely? That is the bottom line this committee will continue to look at. Few issues are more important. I now turn to the ranking member for any opening comments that he may have.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman.    Thank for your calling this hearing. And thank you for your steady leadership as we confront the problems of Iran's nuclear program. To our witnesses, thank you. Welcome. It is important that members hear views from across the spectrum as we play our part and weigh a potential deal.    I have said from day one the devil is in the details. And until I know exactly what is in the deal, it is hard to comment on whether it deserves support or not. I have been troubled as I have said many times on the outset of these negotiations. Firstly, I have been very troubled that Iran was allowed to enrich and spin centrifuges while we are talking. I think it would have been a heck of a lot better if Iran was told if you want to have serious negotiations with us, while we talk, you stop enriching. But that wasn't done. And that is disappointing. I am told that Iran wouldn't agree to it. Well, does that tell you something about their motives at the outset? I am also disturbed that we are talking about Iran's nuclear capability. We are not talking about, as the chairman pointed out, all the destructive roles they play around the world as the world's leading sponsor of terrorism. Somehow or other, we are not really talking about that in these negotiations. We have four Americans in prison there. We had a hearing in this committee not long ago. I don't know, are they in limbo? What is the story? I think it is preposterous that our people are held hostage while we are negotiating with them.    And the rhetoric still continues to come out. Syria, where hundreds of thousands of civilians have been killed and maimed, the Iranians prop up the Assad regime, Hezbollah, Hamas, you name it, Yemen, they have played negative roles. And so it is very, very troubling. And, again, the devil is in the details. I am glad that the reports are coming out that the administration is digging in its heels. A lot of people said that they would cave at the last minute on some of these issues because they wanted a deal very badly. I think that is being shown that it is not the case, and the Iranians are going to have to make some tough choices or else we are prepared to walk away. I have said from day one that we couldn't want a deal more than the Iranians. If that is the case, then they will just, again, dig in their heels.    And so they need to want a deal, and they need to be ready to make tough concessions. The chairman pointed out some of the troubling aspects of this. There are a few potential implications of a deal I would like to touch on this morning. One of my serious concerns throughout this process is sanctions relief. Even if sanctions relief is gradual and conditioned on Iran's compliance with the deal, easing sanctions will eventually, as the chairman said, translate into a major financial windfall for Iran's leaders. Let's think about what that means.    Even with sanctions in place, even with sanctions in place, Iran is still the largest state sponsor of terrorism in the world. Even with a crumbling economy, Iran spreads its destabilizing influence in Yemen, Syria, Lebanon, Iraq, Gaza, and among our Gulf allies. Iran's leaders have said they will use sanctions relief to help their people and shore up their economy. I will believe it when I see it. So Congress will need to play a role here. The House has already passed legislation to curb funding to Hezbollah, which is wreaking havoc in Lebanon and helping Assad cling to power in Syria. I hope the Senate will act on this measure. And however sanctions relief plays out in the Iran deal, Congress needs to make sure that our sanctions against terrorist groups remain robust and effective. That way, no matter what Iran chooses to do with its resources, we will have other measures to keep funding out of terrorist hands.    The other issue I would like to address is how other countries across the region may respond to a deal. Iran is a nuclear threshold state. This leaves our ally Israel in a constant state of insecurity. Israel must always know we will have their back to deal with that challenge. We need to work with the Israelis, take a hard look at any outstanding concerns tied to this deal, and do whatever is necessary to ensure Israel's security.    Likewise, for our friends in the Gulf, a nuclear arms race would create tremendous volatility in the region. Recently at Camp David, the administration heard from our Sunni Gulf allies about their concerns over Iran's behavior. This summit was a good start but more needs to be done. I hope our witnesses can shed some light on what steps might help shore up stability in the region in the wake of a deal. But I think we also have to consider, and I want to raise a question that I have asked again and again: If we don't get a deal, what are the alternatives? At this point, we all know the refrain, no deal is better than a bad deal.    But let's see what the alternative would be. The alternative to a deal would surely mean some kind of military strikes on Iran's nuclear plants and would also involve sanctions. I think when we weigh whatever final deal there is, we have to weigh it with the alternative and see which alternative we like better. There are no good choices. But it is very, very troubling that Iran continues to do what it has been doing and that we hear negative things from the Supreme Leader talking about all kinds of nonsense that we could not accept in any kind of a deal.    So we need to consider where we will find ourselves if these negotiations fail. We cannot accept a bad deal again, but we need to weigh the P5+1 proposal versus the alternatives. I look forward to hearing our witnesses' insights on these issues. And I thank them again for their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Doran</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doran. Chairman Royce, Ranking Member Engel, members of the committee, thank you for inviting me today to discuss the strategic implications of the nuclear negotiations with Iran. With your permission, I will focus my remarks on the perceptions of America's Middle Eastern allies.    For decades, our partners in the region have been divided among themselves on many consequential issues. But on one point they have all agreed: The importance of the United States as the guarantor of the regional order. They have also traditionally assumed that a primary duty of the guarantor was to orchestrate the containment of the Islamic Republic of Iran.    However, President Obama's pursuit of the nuclear accord has convinced our allies that he has shed that duty. None of them believe that he has any inclination to contain the expansionist Iran. And some of them even fear that he supports Iran's ascendancy.    Of course, the President is well acquainted with these fears. In recent months, therefore, he and his staff have labored intensively to convince the allies that the nuclear accord is, in fact, consistent with their defense needs. The Gulf Cooperation Council Summit at Camp David in May was a prime example of these efforts. Our allies, however, have found the administration's arguments utterly unpersuasive.    Mr. Chairman, it is my intention here to do three things: To sketch some of the key concerns of our allies; to describe some of the arguments that the administration has made to meet those concerns; and then to explain why those arguments fall flat.    Our Middle Eastern allies passed judgment on the Iran deal a long time ago. It is in their eyes a very bad deal. Israeli Prime Minister Bejamin Netanyahu has been uniquely vocal in expressing his disapproval. But his view is widely shared by his neighbors who, like Netanyahu, feel abandoned and betrayed by the United States. In my written testimony, I go into greater detail about the sources of those feelings. For the purpose of brevity here, suffice it to say that over the course of the nuclear negotiations, the allies have seen U.S. relations with Iran become increasingly friendly. They are certainly disturbed by President Obama's willingness to bless Iran as a nuclear threshold state. But they are equally unnerved by the lack of concern that he has demonstrated as Iran has flexed its muscles in Syria, Iraq, and Yemen. When viewed from capitals, such as Riyadh and Jerusalem, it appears that there is a hidden price to the nuclear deal, a price that will be paid by the allies more than anyone else.    The United States appears to be tacitly recognizing an Iranian sphere of interest in Iraq, Syria, and Lebanon. Indeed, Washington has at times even publicly approved of Iran's expansionism. When, for example, Secretary of State John Kerry characterized Iranian combat sorties in Iraq as ``a good thing,'' his words were greeted with shock and anger throughout the Gulf. Israeli Defense Minister Moshe Ya'alon thus spoke for all of America's allies last week when he lamented that the United States now sees Iran as part of the solution, not the problem.    Of course, President Obama is well aware of the fears that his policies are generating. And he and his advisers have crafted a number of arguments to quell them. These arguments, which my written testimony covers in some detail, all work in support of a simple thesis, that the comprehensive nuclear agreement with Iran will not undermine an American commitment to the allies' security. In fact, the administration is now claiming the deal can function as the first step in a new comprehensive regional strategy. The Camp David Summit, so the story goes, laid the groundwork for a new strategic partnership with the GCC states, a partnership that will speed arms transfers and increase cooperation on counterterrorism, ballistic missiles, and a host of other cooperative security ventures.    In truth, America's Gulf allies have no confidence that President Obama will actually deliver on what they consider to be their vital needs. They are intensely aware that his understanding of the phrase ``Iran containment'' and their understanding of the phrase are entirely different. What they desire from the United States is a policy of rollback, a set of initiatives designed to drive Iran from Syria and Yemen, to challenge Hezbollah's monopoly over politics in Lebanon, and to weaken the role of Shiite militias in Iraq. They want the United States to lead a regional security system that will counter the Revolutionary Guard Corps at its favored game, subversion.    By contrast, President Obama is offering tools and initiatives that will help the GCC states maintain stability at home and mount a collective defense against a conventional attack from Iran. The America approach, in other words, simply does not meet the threat as the allies actually experience it. In their eyes, President Obama is like a doctor who is prescribing heart medicine to a cancer patient.    At the close of the GCC summit, President Obama went out of his way to make sure that his approach to containment would not be misunderstood. I want to be very clear, he said, the purpose of security cooperation is not to perpetuate any long-term confrontation with Iran or even to marginalize Iran.    Our allies got the President's message loud and clear: The United States is out of the business of Iran containment as it has been understood in Washington for the last 36 years.    Unlike the Israelis, our Gulf allies have chosen not to advertise their sense of abandonment and betrayal. Instead, they have chosen simply to go their own way, quietly. For example, Riyadh organized a coalition of Sunni allies that intervened in Yemen in order to counter the Iranian-backed Houthi rebels in that country. But the intervention was also meant to send a message to President Obama: If you won't organize the region to contain Iran, we will.    To drive home the point, the Saudis gave Washington only an hour's notice before their intervention began. The Saudis and their closest allies will remain dedicated to contesting Obama's policies, albeit quietly. And they will continue to fight back against Iran and its proxies in Yemen, Syria, and Iraq.    Meanwhile, the Iranians, flush with cash from the nuclear deal, with grow bolder and richer and more prone to intervention. The President's Iran policy, therefore, will deliver disequilibrium to the Middle East, the exact opposite of what the administration is claiming.    Thank you again for inviting me to testify. It is an honor to speak before this committee on such a consequential topic.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Mr. Rademaker.</t>
   </si>
   <si>
-    <t>Rademaker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rademaker. Thank you, Mr. Chairman, Congressman Engel, members of the committee.    It is a pleasure to be here again to testify on this issue. And it is a special pleasure for me to be here with Dr. Makovsky, with whom I have worked on this issue on two Iran task forces at this point. We haven't coordinated our testimony, but I am sure I am going to agree with what he says.    I will summarize my testimony. At the moment, we are all focused, because the press is focused, on the remaining issues in disagreement in negotiations. But one of my points is we shouldn't allow that focus on issues like inspections and the possible military dimensions to divert our attention from the more fundamental problems with this agreement, which I think are basically baked in. The first point I make in my testimony is that even if all the issues that are in dispute today, the ones we are reading about in the newspapers, are resolved on favorable terms to the United States, this is still a bad deal. And I would refer you to the testimony I presented previously as to why I think it is a bad deal.    But among all the reasons that I have put forward in the past, the single most important one to my mind is the sunset clause. And the point I have made in the past and I repeat in my testimony today is that if it is dangerous for the United States to face an Iran today that in 2 to 3 months is able to produce a nuclear weapon, if that is dangerous and it is so important to extend that to a 1-year breakout time, that we are prepared to eliminate all the sanctions that we put in place, why isn't it going to be even more dangerous in 10 years for Iran to have a much shorter breakout time with which they will be able to produce a much larger number of nuclear weapons than is the case today?    If 2 to 3 months is dangerous today, isn't it going to be vastly more dangerous to have a breakout time that measures in days or weeks starting 10 years from now? That is fundamentally what this deal provides to Iran. And to me, that is what is most alarming about it.    I spent a lot of time in my testimony focusing on the statement that was put out by the group of bipartisan American diplomats, leaders, and experts at the Washington Institute, a very distinguished group, including some of President Obama's former advisers on the Iran issue, including Howard Berman, the former chairman of this committee. It is a very useful statement, and I expect it will figure importantly in the congressional debate that takes place because of the stature of these individuals. They identify a number of concerns. They make a number of recommendations for modifications to the agreement. I agree with their comments. I hope those modifications are made.    But less noted is the fact that they are also concerned about the sunset clause. They don't use that term, but it is in the statement. And they come up with what I think is actually a radical solution to the sunset clause problem. And I want to draw your attention to it because I think it speaks to the question of what Congress should do and what situation is this deal putting the United States in and what do we do about it.    I quote the relevant language from their statement, beginning at the bottom of page 2 of my testimony, but what they say is it needs to be U.S. policy to prevent Iran from producing sufficient fissile material--that is material to produce a nuclear weapon--sufficient material for a single nuclear weapon, both during the agreement and after the agreement expires. So that ``after the agreement expires,'' they are talking about the sunset clause. We need to make sure they can't produce enough material for a nuclear weapon either now or after the agreement expires. And they say: The United States must go on record now that it is committed to using all means necessary, including military force, to prevent this. The President should declare this to be U.S. policy, and Congress should formally endorse it.    So they are basically saying you, the Congress, should authorize the use of military force if Iran at any point, either during the agreement or afterwards, produces enough fissile material for a nuclear weapon. Now, the reason that is a radical proposal is, of course, the proposed agreement, in fact, permits Iran to produce enough fissile material for a nuclear weapon. Basically what they are saying is if this agreement comes into force, the United States concedes to Iran the right to produce fissile material and lots of it if they decide they need to do that, but we should then bomb them if they exercise this right that we are giving to them. And I think that is a pretty sobering recommendation because this debate is often cast in terms of we either need this deal, or we are going to have to go to war. It is the deal or war. But if you read what all these experts are telling you, they are saying: Well, actually there may be war even if we give them this deal because the deal is going to authorize them or permit them to do things that would require us to use military force in any event.    I mean, these are not random people. These are very serious people, including President Obama's top advisers. And the point I make at the very end of my testimony is that, as distinguished as these people are, I don't think that recommendation makes a lot of sense. If we are going to bomb Iran, let's do it in defense of the existing U.N. Security Council resolutions. Let's not do it in defiance of this agreement that the President is about to sign because this agreement permits Iran to do things that they are saying if Iran does, we need to bomb them. I think we will find ourselves without many friends if we disregard this agreement and then proceed to use military force against Iran.    So that is one of the key points of my testimony. I also do comment on some of these issues in dispute, the possible military dimensions issue, which is a question of the history of the Iranian nuclear program. I think it is very important. Secretary Kerry said we know enough; we don't need to get into this. I think the International Atomic Energy Agency deserves the support of the United States to get to the bottom of that question. We know how to require countries--we required North Korea to cooperate with the IAEA. They have never required, they have never conditioned any of the benefits in this agreement on cooperation between Iran and the IAEA. They call for it, but they don't condition anything on it. So that is not serious support to the IAEA in its effort to get to the bottom of the matter.    One of the other issues that has just emerged in the last week is Iran is suddenly saying, contrary to what was in the fact sheet that was released on April 2 that described the proposed deal, that fact sheet said sanctions on ballistic missiles and conventional arms transfers from Iran would be kept in place. The Iranians are now saying they want all those sanctions to be ended. The intelligence community assesses that with foreign assistance, Iran this year could test a ballistic missile capable of striking the United States. Understand that what Iran is saying is they want the prohibitions on receiving that kind of foreign assistance to go away. They are saying: We want to be able to get the foreign assistance we need to be able to produce a ballistic missile to strike the United States this year.    And as you pointed out, Mr. Chairman, their whole ballistic missile program makes no sense in the absence of a nuclear weapon. To strike the United States with a conventionally armed ballistic missile makes no sense. With a nuclear weapon, it is a serious threat. And the idea that these two are unrelated is simply illogical. And, in fact, it is part of the possible military dimensions issue that the IAEA wants to dig into. They want to look at the links between the ballistic missile program and the nuclear program. And that is why the United States needs to support them on that issue.    I think I am out of time. So I will end. And I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Dr. Makovsky.</t>
   </si>
   <si>
-    <t>Makovsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Makovsky. Chairman Royce, Ranking Member Engel, members of the committee, thank you very much for inviting me this morning to discuss the emerging Iran deal. I also am very honored to be on the panel with Steve Rademaker. We have worked together on Iran, on the task force, since 2007. Based on what we know today, the emerging comprehensive Iran deal is deeply flawed and with historically severe implications for U.S. standing in national security. So I believe every day the deal isn't concluded is a good day.    The Obama administration has four primary arguments on behalf of this emerging deal: First, it will cut off every pathway to a nuclear weapon. But President Obama correctly acknowledged in April that in 10 or 15 years, Iran's ``breakout times would have shrunk almost down to zero.''    The second argument is that it will delay a nuclear Iran for over a decade. Delay is, indeed, strategically very valuable, but only if Iran's nuclear program is truly frozen and Iran contained, which is not the case with this deal.    Third, that a military strike would create a much shorter delay than a deal. But Israeli strikes on Syrian and Iraqi nuclear facilities actually have pushed back their programs for many years and counting. And Israelis believe they could push back Iran's program for at least 3 years. The United States has obviously a lot more capability, and will likely push it back even further, especially with continued vigilance. We can't predict, of course, exactly what a military strike would delay the program. But I think it is safe to say that it would, could dissuade other countries from developing their own nuclear program.    Fourth, the only alternative to this deal is war. That is their fourth argument. President Obama claims that Iran came to the table because of sanctions. Yet he also contends that any further pressure would only cause it to restart its nuclear program, leading to war. In fact, as you all know, Iran has shown itself susceptible to military and economic pressure. And we obviously could do a lot more since we could cut off their oil exports. It wouldn't have any impact on the oil market, with prices having halved in the last year.    However, the administration does not avail itself of these other options; leaving itself only diplomacy without other levers simply becomes pleading. This empty holster, as Tom Friedman recently put it, has made war not the alternative but possibly the consequence of this deal. Let me discuss some of the strategic implications of this deal. Since at least Jimmy Carter was President, America has had three main interests in the Middle East; a secure Israel, a secure flow of oil from the Persian Gulf, and weakening of Islamic radicalism. These three interests have converged in containing the Islamic Republic of Iran. President Obama came into office seeking to reverse traditional U.S. foreign policy which he deemed wrong, often wrong, counterproductive, and a divergence from domestic demands. That has led him to reach out and eventually to embrace Iran and align with it at the expense of our traditional allies. Hence, he did not support the 2009 uprising in Tehran and did not support Assad's opponents in Syria. And he didn't implement the 2013 Syrian red line. Yet he did support in 2011 the demonstrations against our allied regimes. He also initiated secret talks with Iran even when Ahmadinejad was President without consulting or informing our allies like the Saudis and the Israelis. As Mike Doran mentioned, he has also increased our alignment with Iran in other parts of the region.    This policy has culminated in what I believe is an overeagerness to accommodate Iran in the nuclear talks despite the fact that Iran, frankly, is a third-rate power. The result is questionable U.S. reliability and questionable American credibility. There are a number of great consequences to this policy. First, some of our Sunni allies will seek to develop nuclear programs or acquire nuclear weapons to ensure security. As Henry Kissinger and George Shultz wrote in April, do we now envision an interlocking series of rivalries with each new nuclear program counterbalancing others in the region? The fact is nuclear contagion will regionalize this challenge so that we will no longer just have to monitor what Iran is doing and not doing with its nuclear program, but we will have to also be looking at what the Saudis and other countries in the region are doing with their nuclear program. This will increase the risks, the chances of a nuclear conflict in the Middle East, whether through intent or miscalculation. And it could well draw in the United States.    Second, the radicals in the region, such as Hezbollah, Hamas, ISIS, and the Muslim Brotherhood, will feel emboldened by this deal and what they perceive as American capitulation. There will also be continued realignment in the region. Other countries will seek closer relations in the region with Russia and China. Other countries, including net oil importers, will seek closer relations with Iranians. Of course, on the positive side, the Israelis and the Arabs, who share a sense of abandonment by the United States, will intensify their quiet collaboration.    Fourth, to counteract all the above, the United States will likely try to contain a nuclear Iran as we did in the Cold War. However, containment is based on deterrence. Deterrence, in turn, demands credibility, of which we will have little on this issue. It requires indefinite, dedicated, and expensive commitment. And it is unclear whether containment even applies and deterrence applies to the Iranian regime.    Fifth, Israel could well feel compelled to strike Iran. In short, rising tension and even war, including nuclear war, could result from this deal and is not its alternative.    In conclusion, as the chairman knows, I wrote a book on Winston Churchill. And he famously said to Neville Chamberlain, who, by the way, was his party leader, as well as the Prime Minister, in 1938 about the Munich Agreement: You were given the choice between war and dishonor. You chose dishonor, and you will have war.    This is not to compare leaders or situations to today. But it is to make two points: First that the consequence of this deal will not be peace but greater tension and the risk of conventional war and even nuclear conflict that can draw in the United States. Second, this issue transcends any administration or party. There could still be hope. But an acceptable diplomatic solution will require fully and truly employing, in President Obama's words of 2009, all elements of American power.    I urge Congress that if this deal is concluded to reject the emerging deal and reinvigorate American leverage and credibility to achieve an acceptable deal and prevent a nuclear Iran at all costs.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you. Dr. Pollack.</t>
   </si>
   <si>
-    <t>Pollack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pollack. Thank you very much. Mr. Chairman, Congressman Engel, distinguished members, thank you very much for inviting me to testify before you.    I don't know what the terms of the deal are going to look like. And those terms are important. As a result, I am going to reserve judgment for now on what I think about the actual deal until I have it before me. And although the details of the deal are important, not inconsequential, I think, like many of my panel members, that it is also important that we recognize that the details of the deal are not the only thing that needs to be thought about, that needs to be discussed, that needs to be debated with regard to the deal.    And I fear that we are drowning out other critical aspects of this issue in our fixation with the specific terms of the deal. In particular, we all need to constantly remember that our fears about the Iranian nuclear program are fears about how that program could exacerbate the circumstances in the region itself. Our fear has always been that Iran with nuclear weapons or even a threshold capability would be encouraged and enabled to act more aggressively in the region. In other words, any nuclear agreement with Iran needs to be seen as a means to an end, not an end in and of itself. It needs to be seen as a part of a wider American strategy toward the region. And we need to consider that entire strategy, not just the specific terms of the deal.    Obviously, the terms of the deal will be important in deciding how we should shape our strategy moving forward and in the context of a region changed by whatever happens in that deal. But we need to also recognize that our policies beyond the deal itself will have an equal if not greater impact on what happens in the region as a result of that deal.    Whatever it does to the Iranian nuclear program or doesn't do to the Iranian nuclear program, the deal can either hurt or help regional stability. But, again, it is only part of that puzzle. Another, potentially much bigger piece of that, is the question of what the United States does to prepare the groundwork once we have the deal in place. There is a great question mark out there that none of us can answer as to how Iran will behave in the aftermath of a deal. Will they become more aggressive, less aggressive, stay the same? All this matters a great deal. Proponents of the deal make the case that it may be possible after a deal for President Rouhani and Foreign Minister Zarif, who clearly would like a better relationship with the rest of the world and the United States, to forge some kind of a rapprochement building on the political capital that they will accrue from a successful deal. That is a plausible scenario.    Unfortunately, an equally plausible scenario is one in which the Supreme Leader decides that he has got to either throw a sop to his hardliners or else demonstrate to his own constituency that he has not abandoned Khomeini ideology and so becomes more aggressive to demonstrate that he has not lost his revolutionary mojo.    From my perspective, I think that, at least in the short term, it is most likely that Iran's behavior toward the region is going to remain basically the same. I think that over the last 4 years, Iran has put in place a series of policies toward the different countries and problems of the region that suit its interests, its politics, and its capabilities. I don't think that any of those policies were predicated on what did or didn't happen with the nuclear negotiations. And for that reason, I don't see a successful nuclear deal of any kind as fundamentally changing Iran's approach to any of those things. And, unfortunately, Iran's broad policy toward the Middle East is inimical to American interests. It is inimical because the Iranians define it as being inimical to our interests. And more than that, it is destabilizing in a number of very important places, although not all, in the Middle East.    As we are all well aware, and as my copanelists have described, many of our allies in the region, led by the Gulf Cooperation states, are very concerned about how Iran will behave after a deal. They fear that the Iranians will be more emboldened, will be more aggressive. They also fear how the United States will behave after a deal. They are deeply concerned, as Dr. Doran has eloquently pointed out on many occasions, that the United States is going to use a nuclear deal with Iran as a ``get out of the Middle East free'' card, that we will take the deal, announce that we have solved the greatest problem in the Middle East and walk away.    And the great danger is that what we have seen is that when our allies, particularly when the GCC feels frightened, when they feel that they cannot rely on us, their default option is not to accommodate Iran, as many people fear; it is, instead, to get in Iran's face and push back as hard as they can. And the problem there is that the GCC lacks the political and military capacity to do so. And it runs the risk of overstressing its own political and military capabilities with potentially dire repercussions for their own internal stability.    The Yemen war, the recent GCC intervention in Yemen, I think is an eloquent case in point there. It is unprecedented. We have never seen the GCC undertake so massive a unilateral military intervention. It is also incredibly dangerous. They don't know what they are doing. They don't have a plan. They don't know how to get out. They can't do a surge in Iraq, even though they have got themselves stuck in Yemen, exactly the way the United States had gotten itself stuck in Iraq back in 2005, 2006. And that is a very real problem, not just for them but for us.    As my copanelists have pointed out, they are not assuaged by the Camp David Summit or by the administration's statements. The administration continues to plead that they have not disengaged from the region and do not plan to further disengage. But here I have to agree with my GCC colleagues that me thinks the administration doth protest too much, to paraphrase Shakespeare. The administration said it would disengage from the region. It did do so. And it has only partially reengaged when circumstances forced it to do so. And it is now trying to do the minimal possible to sort out the situation.    I am concerned that in the wake of a deal, it is going to require a major American effort to convince the region that we are not walking away, to push back on the Iranians, to let them know that they will not have a free hand in the region, and to reassure our allies so that they do not feel that they need to take on the Iranians themselves in ways that they are simply incapable of doing so. Once again, I see ourselves faced with choosing among the least bad option. And I am reminded that it seems to me that, once again, the Middle East is teaching us the lesson, that whenever we try to minimize our commitments there, the problems of the region simply get worse. And they force us eventually to come back and do more than we had ever intended. Thank you.</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. Thank you so much, Mr. Chairman.    Thank you for excellent testimony.    The only good deal is one in which Iran ceases all enrichment and dismantles its nuclear infrastructure. That is the best way, the only way to ensure that Iran won't be able to create a nuclear weapon, ever. If a deal is signed based on this framework agreement, that means it allows Iran to keep in place every key element of its nuclear infrastructure, preserve its stockpiles of enriched uranium, and keep its equipment and research and development program.    Not only is this agreement, from what we know, a significant step back from what the U.N. Security Council and world powers were demanding from Iran just a few years ago--do we remember that, do we remember those resolutions?--but it is also significantly weaker than even what the President stated emphatically were his lines and his demands, just 1\\1/2\\ years ago. And I have his quotes here if we don't remember.    We don't know much about Iran's possible military dimension. That is frightening. And what about the Parchin military facility, which was the center of Iran's weaponization and military program? We need answers on that. But it is clear that the administration is willing to let that fly.    The Supreme Leader and his puppet Rouhani, because Rouhani will only do what the Supreme Leader says, they are saying that Iran will only sign the nuclear deal if sanctions are lifted the same day. What has the administration offered in terms of sanctions relief and at what scale? We hear a lot of talk about a signing bonus, as if it is the NFL draft, of $50 billion before Iran even has to comply with anything. This is beyond irresponsible and incomprehensible.    And can the agreement be verified? In a word, no. The Iranian regime still controls access to its sites, and we know how good they have been on dodging, on stalling, on misleading, and blocking, and there is no reason to believe that they are going to change. Iran has said it won't allow inspections on its military sites. So guess what will be happening in its military sites?    This whole deal is a fanciful notion and is really a disaster waiting to happen for our national security, for our allies in the regions. And the sad reality is that the only way we are likely to not get this deal is if the Iranians can't take yes for an answer.    Similar to the Palestinians and the Israelis, the Israelis were offering them in many of these peace talks everything to the Palestinians. The Palestinians walked away from the deal. We are better off for it. The only way we are not going to get this deal if the Iranians walk away. Everything about this deal is my most serious concern.    I wanted to ask you in the little time I have remaining about breakout capability. Certainly, 1 year isn't sufficient. We have had many experts tell us it is nearly impossible to even tell when the clock begins, and even when it does, it is next to impossible for the administration to verify that Iran has started breaking out and then send it up to the U.N. Security Council to have that body act. Like most everything else related to this deal, it is just a pipe dream.    Is 10 years enough? And what can you tell us about the about the breakout capability that we are looking at?    Mr. Rademaker.</t>
   </si>
   <si>
@@ -193,9 +172,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Madam Chair.    America's national security is an issue that those of us trusted by the public to serve in Congress must and do take seriously. It is going to take all of us on both sides. But I am going to be positive and think that we will get to a deal that most of us can support. I wanted to look forward.    Saudi Arabia has said that they want the same capabilities as Iran if a deal is reached. Jordan and Egypt have hinted the same as well. Some have cited these examples as the beginning of a nuclear arms race. How serious do you think the regional actors are in pursuing their own nuclear programs? And it is open to all of you.</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. Thank you for calling this, again, timely and important hearing.    Welcome to our witnesses.    Based on the outlines of the deal as we know it, President Obama's rush to sign what appears to be an egregiously flawed nuclear deal with Iran may make war more, not less likely, may trigger a nuclear arms race in the region, and surely makes Israel and our other friends and allies in the region and the United States itself less safe.    A sunset clause is one, but this deal appears to be riddled with Achilles' heels. And I think we will wake up too late to that fact because of this rush. It ought to be self-evident that any nuclear agreement must bar every Iranian path to nuclear weapons. This deal must last for decades, not for 15 years or whatever the sunset provision turns out to be. Iran must be compelled to dismantle its current nuclear infrastructure, not merely disconnect centrifuges, no enrichment.    And my friend and colleague from Florida, Ms. Ros-Lehtinen, was right, all of the previous admonishments from the U.N. and Security Council resolutions were no enrichment. That is off the table now. IAEA inspectors must have unfettered access to any and all suspected sites, including military installations.    What a theater of the absurd when during these negotiations high-level people from the very top say: No access to nuclear inspections on military installations. I mean, that is where they will put them.    And let me also ask our distinguished panelists, if there is no deal, or if Iran fails to live up to a deal, say Congress were to go along with it, what happens when they fail to live up to it, which I think we can almost predict with near certainty will be the case.    We are in a position of worldwide comprehensive sanctions. Will they happen? Or will that coalition, is it being dismantled even as we talk? Again, there shouldn't be a lifeline to China for oil, which kept Tehran afloat.    Secretary Rademaker, you bring up a number of great points about the cascade of nuclear proliferation in the Middle East, which I think is the next step. How can they not build up their own deterrence capability in light of an aggressive country like Iran?    And I thought your including Thomas Friedman's comments about ``it is stunning to me how well the Iranians, sitting alone on their side of the table, have played a weak hand against the United States, Russia, China, France, Germany, and Britain on their side of the table. When the time comes, I am hiring Ali Khamenei to sell my house. . . .'' And you talk about how--quoting him--how they should have walked out, say: That is it, there are some bright lines. I mean, the future of millions of people's lives--and what is worse than nuclear bombs--hang in the balance.    And let me also finally ask about, given Iran's long history of supporting terrorist organizations, what is to restrain them from selling materials for dirty bombs to other rogue or to other terrorist organizations?    And, again, we still have four Americans, including Saeed Abedini, being cruelly mistreated while all of this is going on. I have chaired, myself, two hearings. The chairman had a hearing with relatives from each of the four. That too just begs the question of who it is that we are really dealing with. And as you said, the whole idea of those sanctions, especially when we went after the bank, that had a bite, and it should have had a longer bite to get a better deal.    Mr. Rademaker.</t>
   </si>
   <si>
@@ -241,9 +214,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman and ranking member. And I thank the panelists as well.    I am going to reserve judgment on a final deal until we actually see what is in that final deal. But my starting point and my concern is, I don't trust Iran. Right? In any final deal, verification has to be the starting point. I just don't know how you verify if you don't have unfettered access to places.    And, again, if you don't have that verification, as the chairman stated, there should be no signing bonus, right? I mean, you don't get a bonus just for signing the deal. You get a bonus after adhering to the terms of the deal, verifying that, and then over time perhaps you can gain trust. And that is what has me concerned.    I also have very legitimate concerns that as Iran's economy strengthens, what they do with that strength in terms of--many of the members, the ranking member and the chairman, have talked about the funding of terrorism, the funding of Hamas and Hezbollah, and that is a real concern. If we look at the nature of the Middle East and how things are changing dramatically, you can see a scenario where a revitalized Iran, a Shia-dominated Iraq, an Assad who stays in place, Hezbollah and Hamas creating this ring around our allies. And even without nuclear weapons, we see a very unstable Middle East, where I would never have thought that Israel, Egypt, and Saudi Arabia, the unlikeliest of allies, might actually ally against a common threat.    I certainly would be curious about this scenario, even without acquiring nuclear weapons, what a revitalized Iranian economy would look like and how they would use those.    Maybe, Mr. Rademaker, if you would like to.</t>
   </si>
   <si>
@@ -265,9 +235,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank you all for being here today on this extraordinarily important situation that is developing. And amazingly enough, I share the concerns expressed by the editorial of The Washington Post. To quote the Washington Post, and I quote, I want to quote it correctly:        ``If it is reached in the coming days, a nuclear deal         with Iran will be, at best, an unsatisfying and risky         compromise. Iran's emergence as a threshold nuclear         power with the ability to produce a weapon quickly will         not be prevented. It will be postponed by 10 to 15         years. In exchange, Tehran will reap hundreds of         billions of dollars in sanctions relief it can use to         revive its economy and fund the wars it is waging         around the Middle East.''    And, Dr. Makovsky, I sadly agree so much. This is worse than Munich. There might have been, as you were indicating, an explanation for Neville Chamberlain's actions. But I am just very concerned. The President's actions, the weakness that is being exhibited, is just bizarre. And for a President who has been fixated, properly, on not having nuclear proliferation throughout the Middle East, it is creating a legacy of proliferation.    With that in mind, what are the consequences for regional stability if the administration does cave in to Iranian demands?</t>
   </si>
   <si>
@@ -298,9 +265,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    Mr. Rademaker, I am not sure where you are going with that. By the way, the rearmament in Germany in World War II, as a student of history myself, I mean, had a lot more to do than Hitler running circles around inspectors. It had a lot more to do with the fact that the West was just tired and was not going to challenge them. Thus the reoccupation of the Rhineland and the remilitarization, they knew what was happening. He wasn't hiding the fact he was rebuilding an air force and expanding the military with universal conscription and the like, and, clearly, the Ruhr was up and running.    I mean, these were not secrets that were kept from inspectors. It was actually about political will. It was about whether you are going to turn a blind eye to all of that because you were weary of war. And World War I had been so traumatic, especially in France and Britain, that hopefully, wishful thinking would make it all go away, or there would be some modus vivendi we could all accept. They were wrong. Churchill on that one was right. He was wrong on most everything else, but he was right about that.    But what is it you are proposing? Should we therefore say we shouldn't have an inspections regime, we shouldn't have the ability to evaluate, because it is fruitless, people can run rings around them?</t>
   </si>
   <si>
@@ -373,9 +337,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Well, I am going to pick up where Mr. Connolly left off, but he won't be surprised there may be a slight twist on how I hold the blade.    Mr. Rademaker, let me understand a premise that I think you have here, and tell me if I am off, the question of do we take the deal or don't take the deal. The fact is, if the deal is to allow the equivalent of the entire World War II Luftwaffe sitting on the ground with the promise that although the fuel tanks are right next to the planes, they won't fully load the planes and the bombs for 10 years, that is kind of where we are. We are letting them have all the weapon of war, the launch systems, the missiles, the fissile material. What we are saying is, the time it takes to load these aircraft and get them in the air is what we are counting on. Isn't that sort of the equivalent?</t>
   </si>
   <si>
@@ -427,9 +388,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Yes. I would ask the witnesses to give your advice to Congress. We want to control foreign policy, all of us in this room, one way or another. You would like to be advising the President. The President isn't listening to you. You at least have us. If you compare him to Neville Chamberlain, he certainly isn't listening to you. But whatever is going to happen in Vienna in the next 12 hours is going to happen.    So you posit a world in which we walk away from a bad deal, we sign a good, we do this. The President is going to do what he is going to do, and he isn't going to listen to us in the next 12 hours.    So your advice to us has to be: What should Congress do? Not in some mythical world where Dr. Pollack has a time machine, not in some mythical world where Ronald Reagan is resurrected and is the President of the United States on the day we vote on the deal, but rather what do we do if the President says, ``This a reasonable deal, Iran has signed a reasonable deal, and Congress is being unreasonable''? Do we go on a codel to Rome, convince the Italians to prevent Eni from doing business with Iran on a very profitable basis, because, although the President thinks it is a good idea for them to make the profits, some of us think it is a bad idea?    I don't know if any of you want to join us on that codel. I don't think we would be successful. I realize you have comments, but I have got a limited amount of time.    I do want to set the record straight. The Bush administration refused to have sanctions on Iran. We passed a lot of them out of this committee. He blocked them in the United States Senate. And the Iran Sanctions Act was disregarded and violated again and again.    I join with Dr. Pollack in a fear that this is all about a pivot out of the Middle East. The Middle East is frustrating. Confrontation with China is exciting. The Middle East has un-uniformed terrorists. Confrontation with China over islands, that is the kind of war we have had great glory in, especially if we don't wage it, but rather just confront and win it the way we won the war against the Soviet Union.    And right now everything that the Pentagon is doing is figuring out a way to take money away from any forces that might be useful in the Middle East and design new weapons to shoot down Chinese planes over islands--no, they are really just rocks--that don't have any oil, but if they had any oil, the oil would belong to Japan, which by the way, is spending almost nothing on its national defense. That is where we are pivoting to.    This deal needs to be looked at in several phases. The first phase is that first year, where it has good and bad points. We get the stockpiles out of Iran, we get two-thirds of the centrifuges mothballed. And then, as Mr. Rademaker points out, you get to year 12 where it is an absolute disaster. So you have the good, the bad, and the ugly.    The good is those centrifuges and stockpiles. The bad is that they get that $120 billion-plus signing bonus, which they will use for butter, which they will use for graft, they are very good at that, which they will use to kill Sunnis, some of whom deserve to be killed and some of whom definitely do not, and the remainder they will use to attack Israel and the United States.    But the issue before us is: What do we do as a Congress? And we actually shouldn't just say we--it is a very sophisticated question, because we have three possible votes. Do we vote to approve? Do we vote to disapprove? Do we vote to override a Presidential veto of a disapproval resolution? Those are three very different votes. And since the President isn't listening, perhaps you can give advice to us as to how we handle those three circumstances.    The first one is so easy, I won't ask the question, should we vote to approve? If we vote to approve then we have to the greatest extent possible locked the United States into a deal which in year 12 is a nuclear Iran. So we shouldn't do that. The question is, maybe we should vote to disapprove.    The question is, do we override a veto? If we override that veto, then those stockpiles are not shipped out of the country, those centrifuges are not mothballed, and we go to war with Iran in which Congress versus Tehran with the White House on one side or the other, I am not sure.    If the President is telling the world that Iran has signed a reasonable deal and deserves sanctions relief, what should Congress do? Dr. Pollack.</t>
   </si>
   <si>
@@ -502,9 +460,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    And thank you all for being here.    If I understand, the policy of the U.S. goes back all the way to the Carter administration, that, as you said, Mr. Doran--or is it Doran?</t>
   </si>
   <si>
@@ -532,9 +487,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair.    First, Mr. Chair, I would just like to say thank you to Josh Cohen. This is his last full committee. He has been my adviser. He has done a great job. He is going off to Harvard, to the Kennedy School. And we wish him well.    Well, this has been a very troubling discussion. First of all, thank you all for sharing. I mean, you can't help but after listening to all this feel a lot of anxiety. So, first, I want to ask a hypothetical, if it is possible for you to answer, which is I think we went into this, the P5+1, I think it was November 2013 when they first agreed to the plan that is, this temporary plan that is currently in place, and then it began in January 2014. Had this joint plan not been in place, do you think by now we would have had to take military action to stop a nuclear weapon?</t>
   </si>
   <si>
@@ -574,9 +526,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Gentlemen, here we are again. As usual, I have to spend some of my time--I wish Mr. Connolly were still here so, as a student of history, I could remind him of something because I am sure he knows it, but I am always amazed by what I hear here. One of the first things that amazed me was that George Bush is responsible, and he is responsible because we didn't go to war with Iran from the same people that complain daily bitterly that we went to a war with Iraq and Afghanistan.    And then I hear that a veto override by a Republican Congress is tantamount to a declaration of war with Iran. So I guess we can be prepared for that narrative.    And, finally, I would like to remind Mr. Connolly that it was the Clinton administration, as I remember, in May 1998 that waived the sanctions, the Iran-Libya Sanctions Act, which resulted in an increase in Iran's terrorism, nuclear proliferation, and European investment in Iran. So I will have to remind him of that on the floor.    I do have a couple questions. If you can tell me, gentlemen, what are the consequences for regional stability if the administration were to cave to the Iranian demands to lift the U.N. arms embargo?    Go ahead, Mr. Doran.</t>
   </si>
   <si>
@@ -610,9 +559,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    Gentlemen, I appreciate you being here. Let me start off with a question. Do you believe that in the wake of an agreement, the administration will push to delist the Iranian Revolutionary Guard as a proliferator? Dr. Doran?</t>
   </si>
   <si>
@@ -683,9 +629,6 @@
   </si>
   <si>
     <t>412636</t>
-  </si>
-  <si>
-    <t>David A. Trott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all the panelists for your time this morning. And I appreciate you sticking around for, I think I am the last person. I have only been here 6 months, so I get to ask my questions last.    Mr. Sherman made a comment that no one in the White House is listening to us. I believe that is true. So, in many respects, this hearing is all about trying to draw attention through your insightful comments to the deal that is about to get done and draw the American public's attention to it.    And Mr. Yoho asked my question, so I will change it a little bit. If a deal gets done, isn't the 30-second sound bite headline, ``A Done Deal: Iran Will Have a Nuclear Weapon in 10 or 12 Years''? Isn't that the takeaway from where we are at today? And Mr. Yoho, he said they are going to cheat. Let's assume they don't cheat. So, in 12 years, they are going to have a nuclear weapon. Isn't that the short summary for the evening news?</t>
@@ -1132,11 +1075,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1156,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1184,11 +1123,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1208,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1236,11 +1171,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1260,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1288,11 +1219,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1312,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1340,11 +1267,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1364,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1392,11 +1315,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1416,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1444,11 +1363,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1468,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1496,11 +1411,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1520,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1548,11 +1459,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1572,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1600,11 +1507,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1624,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1652,11 +1555,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1676,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1702,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1728,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1754,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1780,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1806,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1832,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1858,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1884,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1910,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1936,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1964,11 +1843,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1988,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2014,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2040,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2066,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2092,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2118,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2144,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2170,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2196,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2222,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2250,11 +2107,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2274,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2300,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2326,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2354,11 +2203,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2378,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2404,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2430,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2456,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2482,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2510,11 +2347,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2534,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2560,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2586,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2612,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2638,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2664,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2690,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2716,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2744,11 +2563,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2768,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2794,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2820,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2846,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2872,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2898,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2924,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2950,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2976,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3002,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3028,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>93</v>
-      </c>
-      <c r="G75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H75" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3054,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3080,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3106,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3132,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3158,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3184,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3210,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3236,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3262,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3288,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3314,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3340,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3368,11 +3139,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3392,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3418,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3444,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3470,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3496,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3522,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3548,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3574,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3600,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3626,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3652,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3678,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3704,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>119</v>
-      </c>
-      <c r="H101" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3730,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3756,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3784,11 +3523,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3808,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
-      </c>
-      <c r="G105" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3834,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3860,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>136</v>
-      </c>
-      <c r="G107" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3886,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3912,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
-      </c>
-      <c r="G109" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3938,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3964,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3990,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4016,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4042,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4068,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4094,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4120,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
+        <v>123</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>136</v>
-      </c>
-      <c r="G117" t="s">
-        <v>137</v>
-      </c>
-      <c r="H117" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4146,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4172,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
-      </c>
-      <c r="G119" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4198,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4224,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4250,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4276,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4302,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4328,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4354,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4380,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4406,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>161</v>
-      </c>
-      <c r="G128" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4432,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4458,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>161</v>
-      </c>
-      <c r="G130" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4484,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4510,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>161</v>
-      </c>
-      <c r="G132" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4536,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4562,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>161</v>
-      </c>
-      <c r="G134" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4588,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>82</v>
-      </c>
-      <c r="G135" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4614,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>171</v>
-      </c>
-      <c r="G136" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4640,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4666,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>171</v>
-      </c>
-      <c r="G138" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4692,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4718,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>171</v>
-      </c>
-      <c r="G140" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4744,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4770,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>171</v>
-      </c>
-      <c r="G142" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4796,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4822,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>171</v>
-      </c>
-      <c r="G144" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4848,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4874,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4900,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>82</v>
-      </c>
-      <c r="G147" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4926,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>185</v>
-      </c>
-      <c r="G148" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4952,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4978,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>185</v>
-      </c>
-      <c r="G150" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5004,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5030,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>185</v>
-      </c>
-      <c r="G152" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5056,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5082,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>185</v>
-      </c>
-      <c r="G154" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5108,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5134,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>185</v>
-      </c>
-      <c r="G156" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5160,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>82</v>
-      </c>
-      <c r="G157" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5186,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>197</v>
-      </c>
-      <c r="G158" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5212,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5238,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5264,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5290,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>197</v>
-      </c>
-      <c r="G162" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5316,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5342,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5368,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5394,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>197</v>
-      </c>
-      <c r="G166" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5420,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5446,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>197</v>
-      </c>
-      <c r="G168" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5472,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5498,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>197</v>
-      </c>
-      <c r="G170" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5524,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5550,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5576,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5602,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
-      </c>
-      <c r="G174" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5628,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5654,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
-      </c>
-      <c r="G176" t="s">
+        <v>180</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
         <v>198</v>
-      </c>
-      <c r="H176" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5680,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5706,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5732,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5758,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>197</v>
-      </c>
-      <c r="G180" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5784,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>82</v>
-      </c>
-      <c r="G181" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5810,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>222</v>
-      </c>
-      <c r="G182" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5836,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5862,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>222</v>
-      </c>
-      <c r="G184" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5888,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5914,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>222</v>
-      </c>
-      <c r="G186" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5940,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5966,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5992,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6018,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>222</v>
-      </c>
-      <c r="G190" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6044,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6070,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>222</v>
-      </c>
-      <c r="G192" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6096,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6122,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>222</v>
-      </c>
-      <c r="G194" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6148,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6174,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>222</v>
-      </c>
-      <c r="G196" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6200,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6226,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>82</v>
-      </c>
-      <c r="G198" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. The hearing will come to order.    I will ask all the members to take their seats at this time. Today the committee continues to examine the Obama administration's nuclear diplomacy with Iran as we get set for a congressional review of a possible, and hugely consequential, agreement.    As we speak, U.S. negotiators in Vienna face another deadline. While we don't have an agreement in front of us, we know the troubling outline taking shape. Just a few months ago, 367 Members of Congress signed a letter, Ranking Member Engel and I led stating that any final agreement must last for multiple decades and include full disclosure of Iran's past efforts to build a nuclear weapon, must include a dramatic reduction in the number of centrifuges, and, most importantly, intrusive inspection and verification measures.    A few weeks ago, several of President Obama's former advisers signed an open letter echoing these same concerns and warned that these negotiations may fall short of meeting the administration's own standard of a ``good'' agreement. Indeed, one witness with us today wrote back when these negotiations began, that a ``good enough'' agreement would have Iran giving up ``all but a minimal enrichment capacity,'' agree to intrusive inspections, and would be an agreement that could guarantee the reimposition of sanctions.    But that is not even close to where the negotiations are right now. The ``most robust and intensive inspections,'' and this was the original goal, ``the most robust and intrusive inspections and transparency regime ever negotiated for any nuclear program in history,'' has morphed instead into an agreement of what is now discussed as ``managed access'' with the Iranians having a big say in where international inspectors can go, where international inspectors cannot go. ``Managed access'' is a big back away from the ``anywhere, anytime'' terms that the administration once demanded.    But to be clear, under this agreement, Iran doesn't even have to cheat to be a few steps away from the bomb. Iran is not required to dismantle key bomb-making technology; it is permitted a vast enrichment capacity and it is allowed to continue its research and development to gain an industrialized nuclear program once the agreement begins to expire in as little as 10 years. That is hardly the original concept of ``decades'' of a long-range agreement. And, frankly, it is hardly ``all but minimal enrichment'' that was the original goal as well.    Meanwhile, Iran continues to develop its ballistic missile capabilities. After Iran's Supreme Leader called demands to restrict its missile program a ``stupid, idiotic expectation,'' in his words, U.S. negotiators backed off this key demand. Instead, Iran is still able to ``mass produce'' its ballistic missiles as the Supreme Leader has ordered. If you will recall his quote at the time, he said it is the responsibility of every military man to figure out how to help mass produce ICBMs. We ought to be concerned, really concerned about that attitude, and some of his additional suggestions about what he would like to do to the United States. One witness told the committee last month that, ``no country that has not aspired to possess nuclear weapons has ever opted to sustain'' a costly, long-range missile program. Already, U.S. intelligence estimates Iran to have the largest arsenal of ballistic missiles in the entire Middle East. Simply put, countries build ICBMs to have the capability to deliver nukes.    Not to mention that the terrorist state of Iran will be flush with cash. Reportedly, Iran will receive somewhere in the range of $50 billion under this agreement upfront; $150 billion over the entire length of the agreement. Now, that would be 25 times the annual budget of Iran's Revolutionary Guard Corps. Such a huge amount will breathe life into Iran's economy, but it will also fund a new generation of terrorism in the region and beyond. We should be worried when Iran announces, as they recently did, that they will help rebuild the tunnels in Gaza, that they will transfer missiles to Hamas, and recently that they will provide 100,000 rockets and missiles for Hezbollah with new technology which will allow precision guidance systems so that those rockets and missiles can hit targets across Israel.    At every step in this process, whether it is enrichment capacity, missile development, or sanctions relief, the Obama administration has discounted the fundamental nature of the regime in Iran. ``Death to America'' isn't domestic spin in Iran--it is the regime's rallying cry. And tomorrow, on Friday, they will once again celebrate Quds Day. Since 1979, since the foundation of the revolution, that is the day they set aside to celebrate for the destruction of Israel.    As one witness concludes, ``President Obama is agreeing to dismantle of sanctions regime--permanently. In return, Iran is agreeing to slow the development of its nuclear program--temporarily.'' That is a bad deal for us: Permanent concessions in exchange for temporary benefits, and that is only if Iran doesn't cheat, like North Korea cheated. So Iran is left a few steps away from the bomb and more able to dominate the region. This is my take on this. How does that make us and our allies more secure or conflict less likely? That is the bottom line this committee will continue to look at. Few issues are more important. I now turn to the ranking member for any opening comments that he may have.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman.    Thank for your calling this hearing. And thank you for your steady leadership as we confront the problems of Iran's nuclear program. To our witnesses, thank you. Welcome. It is important that members hear views from across the spectrum as we play our part and weigh a potential deal.    I have said from day one the devil is in the details. And until I know exactly what is in the deal, it is hard to comment on whether it deserves support or not. I have been troubled as I have said many times on the outset of these negotiations. Firstly, I have been very troubled that Iran was allowed to enrich and spin centrifuges while we are talking. I think it would have been a heck of a lot better if Iran was told if you want to have serious negotiations with us, while we talk, you stop enriching. But that wasn't done. And that is disappointing. I am told that Iran wouldn't agree to it. Well, does that tell you something about their motives at the outset? I am also disturbed that we are talking about Iran's nuclear capability. We are not talking about, as the chairman pointed out, all the destructive roles they play around the world as the world's leading sponsor of terrorism. Somehow or other, we are not really talking about that in these negotiations. We have four Americans in prison there. We had a hearing in this committee not long ago. I don't know, are they in limbo? What is the story? I think it is preposterous that our people are held hostage while we are negotiating with them.    And the rhetoric still continues to come out. Syria, where hundreds of thousands of civilians have been killed and maimed, the Iranians prop up the Assad regime, Hezbollah, Hamas, you name it, Yemen, they have played negative roles. And so it is very, very troubling. And, again, the devil is in the details. I am glad that the reports are coming out that the administration is digging in its heels. A lot of people said that they would cave at the last minute on some of these issues because they wanted a deal very badly. I think that is being shown that it is not the case, and the Iranians are going to have to make some tough choices or else we are prepared to walk away. I have said from day one that we couldn't want a deal more than the Iranians. If that is the case, then they will just, again, dig in their heels.    And so they need to want a deal, and they need to be ready to make tough concessions. The chairman pointed out some of the troubling aspects of this. There are a few potential implications of a deal I would like to touch on this morning. One of my serious concerns throughout this process is sanctions relief. Even if sanctions relief is gradual and conditioned on Iran's compliance with the deal, easing sanctions will eventually, as the chairman said, translate into a major financial windfall for Iran's leaders. Let's think about what that means.    Even with sanctions in place, even with sanctions in place, Iran is still the largest state sponsor of terrorism in the world. Even with a crumbling economy, Iran spreads its destabilizing influence in Yemen, Syria, Lebanon, Iraq, Gaza, and among our Gulf allies. Iran's leaders have said they will use sanctions relief to help their people and shore up their economy. I will believe it when I see it. So Congress will need to play a role here. The House has already passed legislation to curb funding to Hezbollah, which is wreaking havoc in Lebanon and helping Assad cling to power in Syria. I hope the Senate will act on this measure. And however sanctions relief plays out in the Iran deal, Congress needs to make sure that our sanctions against terrorist groups remain robust and effective. That way, no matter what Iran chooses to do with its resources, we will have other measures to keep funding out of terrorist hands.    The other issue I would like to address is how other countries across the region may respond to a deal. Iran is a nuclear threshold state. This leaves our ally Israel in a constant state of insecurity. Israel must always know we will have their back to deal with that challenge. We need to work with the Israelis, take a hard look at any outstanding concerns tied to this deal, and do whatever is necessary to ensure Israel's security.    Likewise, for our friends in the Gulf, a nuclear arms race would create tremendous volatility in the region. Recently at Camp David, the administration heard from our Sunni Gulf allies about their concerns over Iran's behavior. This summit was a good start but more needs to be done. I hope our witnesses can shed some light on what steps might help shore up stability in the region in the wake of a deal. But I think we also have to consider, and I want to raise a question that I have asked again and again: If we don't get a deal, what are the alternatives? At this point, we all know the refrain, no deal is better than a bad deal.    But let's see what the alternative would be. The alternative to a deal would surely mean some kind of military strikes on Iran's nuclear plants and would also involve sanctions. I think when we weigh whatever final deal there is, we have to weigh it with the alternative and see which alternative we like better. There are no good choices. But it is very, very troubling that Iran continues to do what it has been doing and that we hear negative things from the Supreme Leader talking about all kinds of nonsense that we could not accept in any kind of a deal.    So we need to consider where we will find ourselves if these negotiations fail. We cannot accept a bad deal again, but we need to weigh the P5+1 proposal versus the alternatives. I look forward to hearing our witnesses' insights on these issues. And I thank them again for their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,24 +82,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Doran</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Doran. Chairman Royce, Ranking Member Engel, members of the committee, thank you for inviting me today to discuss the strategic implications of the nuclear negotiations with Iran. With your permission, I will focus my remarks on the perceptions of America's Middle Eastern allies.    For decades, our partners in the region have been divided among themselves on many consequential issues. But on one point they have all agreed: The importance of the United States as the guarantor of the regional order. They have also traditionally assumed that a primary duty of the guarantor was to orchestrate the containment of the Islamic Republic of Iran.    However, President Obama's pursuit of the nuclear accord has convinced our allies that he has shed that duty. None of them believe that he has any inclination to contain the expansionist Iran. And some of them even fear that he supports Iran's ascendancy.    Of course, the President is well acquainted with these fears. In recent months, therefore, he and his staff have labored intensively to convince the allies that the nuclear accord is, in fact, consistent with their defense needs. The Gulf Cooperation Council Summit at Camp David in May was a prime example of these efforts. Our allies, however, have found the administration's arguments utterly unpersuasive.    Mr. Chairman, it is my intention here to do three things: To sketch some of the key concerns of our allies; to describe some of the arguments that the administration has made to meet those concerns; and then to explain why those arguments fall flat.    Our Middle Eastern allies passed judgment on the Iran deal a long time ago. It is in their eyes a very bad deal. Israeli Prime Minister Bejamin Netanyahu has been uniquely vocal in expressing his disapproval. But his view is widely shared by his neighbors who, like Netanyahu, feel abandoned and betrayed by the United States. In my written testimony, I go into greater detail about the sources of those feelings. For the purpose of brevity here, suffice it to say that over the course of the nuclear negotiations, the allies have seen U.S. relations with Iran become increasingly friendly. They are certainly disturbed by President Obama's willingness to bless Iran as a nuclear threshold state. But they are equally unnerved by the lack of concern that he has demonstrated as Iran has flexed its muscles in Syria, Iraq, and Yemen. When viewed from capitals, such as Riyadh and Jerusalem, it appears that there is a hidden price to the nuclear deal, a price that will be paid by the allies more than anyone else.    The United States appears to be tacitly recognizing an Iranian sphere of interest in Iraq, Syria, and Lebanon. Indeed, Washington has at times even publicly approved of Iran's expansionism. When, for example, Secretary of State John Kerry characterized Iranian combat sorties in Iraq as ``a good thing,'' his words were greeted with shock and anger throughout the Gulf. Israeli Defense Minister Moshe Ya'alon thus spoke for all of America's allies last week when he lamented that the United States now sees Iran as part of the solution, not the problem.    Of course, President Obama is well aware of the fears that his policies are generating. And he and his advisers have crafted a number of arguments to quell them. These arguments, which my written testimony covers in some detail, all work in support of a simple thesis, that the comprehensive nuclear agreement with Iran will not undermine an American commitment to the allies' security. In fact, the administration is now claiming the deal can function as the first step in a new comprehensive regional strategy. The Camp David Summit, so the story goes, laid the groundwork for a new strategic partnership with the GCC states, a partnership that will speed arms transfers and increase cooperation on counterterrorism, ballistic missiles, and a host of other cooperative security ventures.    In truth, America's Gulf allies have no confidence that President Obama will actually deliver on what they consider to be their vital needs. They are intensely aware that his understanding of the phrase ``Iran containment'' and their understanding of the phrase are entirely different. What they desire from the United States is a policy of rollback, a set of initiatives designed to drive Iran from Syria and Yemen, to challenge Hezbollah's monopoly over politics in Lebanon, and to weaken the role of Shiite militias in Iraq. They want the United States to lead a regional security system that will counter the Revolutionary Guard Corps at its favored game, subversion.    By contrast, President Obama is offering tools and initiatives that will help the GCC states maintain stability at home and mount a collective defense against a conventional attack from Iran. The America approach, in other words, simply does not meet the threat as the allies actually experience it. In their eyes, President Obama is like a doctor who is prescribing heart medicine to a cancer patient.    At the close of the GCC summit, President Obama went out of his way to make sure that his approach to containment would not be misunderstood. I want to be very clear, he said, the purpose of security cooperation is not to perpetuate any long-term confrontation with Iran or even to marginalize Iran.    Our allies got the President's message loud and clear: The United States is out of the business of Iran containment as it has been understood in Washington for the last 36 years.    Unlike the Israelis, our Gulf allies have chosen not to advertise their sense of abandonment and betrayal. Instead, they have chosen simply to go their own way, quietly. For example, Riyadh organized a coalition of Sunni allies that intervened in Yemen in order to counter the Iranian-backed Houthi rebels in that country. But the intervention was also meant to send a message to President Obama: If you won't organize the region to contain Iran, we will.    To drive home the point, the Saudis gave Washington only an hour's notice before their intervention began. The Saudis and their closest allies will remain dedicated to contesting Obama's policies, albeit quietly. And they will continue to fight back against Iran and its proxies in Yemen, Syria, and Iraq.    Meanwhile, the Iranians, flush with cash from the nuclear deal, with grow bolder and richer and more prone to intervention. The President's Iran policy, therefore, will deliver disequilibrium to the Middle East, the exact opposite of what the administration is claiming.    Thank you again for inviting me to testify. It is an honor to speak before this committee on such a consequential topic.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Mr. Rademaker.</t>
   </si>
   <si>
+    <t>Rademaker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rademaker. Thank you, Mr. Chairman, Congressman Engel, members of the committee.    It is a pleasure to be here again to testify on this issue. And it is a special pleasure for me to be here with Dr. Makovsky, with whom I have worked on this issue on two Iran task forces at this point. We haven't coordinated our testimony, but I am sure I am going to agree with what he says.    I will summarize my testimony. At the moment, we are all focused, because the press is focused, on the remaining issues in disagreement in negotiations. But one of my points is we shouldn't allow that focus on issues like inspections and the possible military dimensions to divert our attention from the more fundamental problems with this agreement, which I think are basically baked in. The first point I make in my testimony is that even if all the issues that are in dispute today, the ones we are reading about in the newspapers, are resolved on favorable terms to the United States, this is still a bad deal. And I would refer you to the testimony I presented previously as to why I think it is a bad deal.    But among all the reasons that I have put forward in the past, the single most important one to my mind is the sunset clause. And the point I have made in the past and I repeat in my testimony today is that if it is dangerous for the United States to face an Iran today that in 2 to 3 months is able to produce a nuclear weapon, if that is dangerous and it is so important to extend that to a 1-year breakout time, that we are prepared to eliminate all the sanctions that we put in place, why isn't it going to be even more dangerous in 10 years for Iran to have a much shorter breakout time with which they will be able to produce a much larger number of nuclear weapons than is the case today?    If 2 to 3 months is dangerous today, isn't it going to be vastly more dangerous to have a breakout time that measures in days or weeks starting 10 years from now? That is fundamentally what this deal provides to Iran. And to me, that is what is most alarming about it.    I spent a lot of time in my testimony focusing on the statement that was put out by the group of bipartisan American diplomats, leaders, and experts at the Washington Institute, a very distinguished group, including some of President Obama's former advisers on the Iran issue, including Howard Berman, the former chairman of this committee. It is a very useful statement, and I expect it will figure importantly in the congressional debate that takes place because of the stature of these individuals. They identify a number of concerns. They make a number of recommendations for modifications to the agreement. I agree with their comments. I hope those modifications are made.    But less noted is the fact that they are also concerned about the sunset clause. They don't use that term, but it is in the statement. And they come up with what I think is actually a radical solution to the sunset clause problem. And I want to draw your attention to it because I think it speaks to the question of what Congress should do and what situation is this deal putting the United States in and what do we do about it.    I quote the relevant language from their statement, beginning at the bottom of page 2 of my testimony, but what they say is it needs to be U.S. policy to prevent Iran from producing sufficient fissile material--that is material to produce a nuclear weapon--sufficient material for a single nuclear weapon, both during the agreement and after the agreement expires. So that ``after the agreement expires,'' they are talking about the sunset clause. We need to make sure they can't produce enough material for a nuclear weapon either now or after the agreement expires. And they say: The United States must go on record now that it is committed to using all means necessary, including military force, to prevent this. The President should declare this to be U.S. policy, and Congress should formally endorse it.    So they are basically saying you, the Congress, should authorize the use of military force if Iran at any point, either during the agreement or afterwards, produces enough fissile material for a nuclear weapon. Now, the reason that is a radical proposal is, of course, the proposed agreement, in fact, permits Iran to produce enough fissile material for a nuclear weapon. Basically what they are saying is if this agreement comes into force, the United States concedes to Iran the right to produce fissile material and lots of it if they decide they need to do that, but we should then bomb them if they exercise this right that we are giving to them. And I think that is a pretty sobering recommendation because this debate is often cast in terms of we either need this deal, or we are going to have to go to war. It is the deal or war. But if you read what all these experts are telling you, they are saying: Well, actually there may be war even if we give them this deal because the deal is going to authorize them or permit them to do things that would require us to use military force in any event.    I mean, these are not random people. These are very serious people, including President Obama's top advisers. And the point I make at the very end of my testimony is that, as distinguished as these people are, I don't think that recommendation makes a lot of sense. If we are going to bomb Iran, let's do it in defense of the existing U.N. Security Council resolutions. Let's not do it in defiance of this agreement that the President is about to sign because this agreement permits Iran to do things that they are saying if Iran does, we need to bomb them. I think we will find ourselves without many friends if we disregard this agreement and then proceed to use military force against Iran.    So that is one of the key points of my testimony. I also do comment on some of these issues in dispute, the possible military dimensions issue, which is a question of the history of the Iranian nuclear program. I think it is very important. Secretary Kerry said we know enough; we don't need to get into this. I think the International Atomic Energy Agency deserves the support of the United States to get to the bottom of that question. We know how to require countries--we required North Korea to cooperate with the IAEA. They have never required, they have never conditioned any of the benefits in this agreement on cooperation between Iran and the IAEA. They call for it, but they don't condition anything on it. So that is not serious support to the IAEA in its effort to get to the bottom of the matter.    One of the other issues that has just emerged in the last week is Iran is suddenly saying, contrary to what was in the fact sheet that was released on April 2 that described the proposed deal, that fact sheet said sanctions on ballistic missiles and conventional arms transfers from Iran would be kept in place. The Iranians are now saying they want all those sanctions to be ended. The intelligence community assesses that with foreign assistance, Iran this year could test a ballistic missile capable of striking the United States. Understand that what Iran is saying is they want the prohibitions on receiving that kind of foreign assistance to go away. They are saying: We want to be able to get the foreign assistance we need to be able to produce a ballistic missile to strike the United States this year.    And as you pointed out, Mr. Chairman, their whole ballistic missile program makes no sense in the absence of a nuclear weapon. To strike the United States with a conventionally armed ballistic missile makes no sense. With a nuclear weapon, it is a serious threat. And the idea that these two are unrelated is simply illogical. And, in fact, it is part of the possible military dimensions issue that the IAEA wants to dig into. They want to look at the links between the ballistic missile program and the nuclear program. And that is why the United States needs to support them on that issue.    I think I am out of time. So I will end. And I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Dr. Makovsky.</t>
   </si>
   <si>
+    <t>Makovsky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Makovsky. Chairman Royce, Ranking Member Engel, members of the committee, thank you very much for inviting me this morning to discuss the emerging Iran deal. I also am very honored to be on the panel with Steve Rademaker. We have worked together on Iran, on the task force, since 2007. Based on what we know today, the emerging comprehensive Iran deal is deeply flawed and with historically severe implications for U.S. standing in national security. So I believe every day the deal isn't concluded is a good day.    The Obama administration has four primary arguments on behalf of this emerging deal: First, it will cut off every pathway to a nuclear weapon. But President Obama correctly acknowledged in April that in 10 or 15 years, Iran's ``breakout times would have shrunk almost down to zero.''    The second argument is that it will delay a nuclear Iran for over a decade. Delay is, indeed, strategically very valuable, but only if Iran's nuclear program is truly frozen and Iran contained, which is not the case with this deal.    Third, that a military strike would create a much shorter delay than a deal. But Israeli strikes on Syrian and Iraqi nuclear facilities actually have pushed back their programs for many years and counting. And Israelis believe they could push back Iran's program for at least 3 years. The United States has obviously a lot more capability, and will likely push it back even further, especially with continued vigilance. We can't predict, of course, exactly what a military strike would delay the program. But I think it is safe to say that it would, could dissuade other countries from developing their own nuclear program.    Fourth, the only alternative to this deal is war. That is their fourth argument. President Obama claims that Iran came to the table because of sanctions. Yet he also contends that any further pressure would only cause it to restart its nuclear program, leading to war. In fact, as you all know, Iran has shown itself susceptible to military and economic pressure. And we obviously could do a lot more since we could cut off their oil exports. It wouldn't have any impact on the oil market, with prices having halved in the last year.    However, the administration does not avail itself of these other options; leaving itself only diplomacy without other levers simply becomes pleading. This empty holster, as Tom Friedman recently put it, has made war not the alternative but possibly the consequence of this deal. Let me discuss some of the strategic implications of this deal. Since at least Jimmy Carter was President, America has had three main interests in the Middle East; a secure Israel, a secure flow of oil from the Persian Gulf, and weakening of Islamic radicalism. These three interests have converged in containing the Islamic Republic of Iran. President Obama came into office seeking to reverse traditional U.S. foreign policy which he deemed wrong, often wrong, counterproductive, and a divergence from domestic demands. That has led him to reach out and eventually to embrace Iran and align with it at the expense of our traditional allies. Hence, he did not support the 2009 uprising in Tehran and did not support Assad's opponents in Syria. And he didn't implement the 2013 Syrian red line. Yet he did support in 2011 the demonstrations against our allied regimes. He also initiated secret talks with Iran even when Ahmadinejad was President without consulting or informing our allies like the Saudis and the Israelis. As Mike Doran mentioned, he has also increased our alignment with Iran in other parts of the region.    This policy has culminated in what I believe is an overeagerness to accommodate Iran in the nuclear talks despite the fact that Iran, frankly, is a third-rate power. The result is questionable U.S. reliability and questionable American credibility. There are a number of great consequences to this policy. First, some of our Sunni allies will seek to develop nuclear programs or acquire nuclear weapons to ensure security. As Henry Kissinger and George Shultz wrote in April, do we now envision an interlocking series of rivalries with each new nuclear program counterbalancing others in the region? The fact is nuclear contagion will regionalize this challenge so that we will no longer just have to monitor what Iran is doing and not doing with its nuclear program, but we will have to also be looking at what the Saudis and other countries in the region are doing with their nuclear program. This will increase the risks, the chances of a nuclear conflict in the Middle East, whether through intent or miscalculation. And it could well draw in the United States.    Second, the radicals in the region, such as Hezbollah, Hamas, ISIS, and the Muslim Brotherhood, will feel emboldened by this deal and what they perceive as American capitulation. There will also be continued realignment in the region. Other countries will seek closer relations in the region with Russia and China. Other countries, including net oil importers, will seek closer relations with Iranians. Of course, on the positive side, the Israelis and the Arabs, who share a sense of abandonment by the United States, will intensify their quiet collaboration.    Fourth, to counteract all the above, the United States will likely try to contain a nuclear Iran as we did in the Cold War. However, containment is based on deterrence. Deterrence, in turn, demands credibility, of which we will have little on this issue. It requires indefinite, dedicated, and expensive commitment. And it is unclear whether containment even applies and deterrence applies to the Iranian regime.    Fifth, Israel could well feel compelled to strike Iran. In short, rising tension and even war, including nuclear war, could result from this deal and is not its alternative.    In conclusion, as the chairman knows, I wrote a book on Winston Churchill. And he famously said to Neville Chamberlain, who, by the way, was his party leader, as well as the Prime Minister, in 1938 about the Munich Agreement: You were given the choice between war and dishonor. You chose dishonor, and you will have war.    This is not to compare leaders or situations to today. But it is to make two points: First that the consequence of this deal will not be peace but greater tension and the risk of conventional war and even nuclear conflict that can draw in the United States. Second, this issue transcends any administration or party. There could still be hope. But an acceptable diplomatic solution will require fully and truly employing, in President Obama's words of 2009, all elements of American power.    I urge Congress that if this deal is concluded to reject the emerging deal and reinvigorate American leverage and credibility to achieve an acceptable deal and prevent a nuclear Iran at all costs.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you. Dr. Pollack.</t>
   </si>
   <si>
+    <t>Pollack</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pollack. Thank you very much. Mr. Chairman, Congressman Engel, distinguished members, thank you very much for inviting me to testify before you.    I don't know what the terms of the deal are going to look like. And those terms are important. As a result, I am going to reserve judgment for now on what I think about the actual deal until I have it before me. And although the details of the deal are important, not inconsequential, I think, like many of my panel members, that it is also important that we recognize that the details of the deal are not the only thing that needs to be thought about, that needs to be discussed, that needs to be debated with regard to the deal.    And I fear that we are drowning out other critical aspects of this issue in our fixation with the specific terms of the deal. In particular, we all need to constantly remember that our fears about the Iranian nuclear program are fears about how that program could exacerbate the circumstances in the region itself. Our fear has always been that Iran with nuclear weapons or even a threshold capability would be encouraged and enabled to act more aggressively in the region. In other words, any nuclear agreement with Iran needs to be seen as a means to an end, not an end in and of itself. It needs to be seen as a part of a wider American strategy toward the region. And we need to consider that entire strategy, not just the specific terms of the deal.    Obviously, the terms of the deal will be important in deciding how we should shape our strategy moving forward and in the context of a region changed by whatever happens in that deal. But we need to also recognize that our policies beyond the deal itself will have an equal if not greater impact on what happens in the region as a result of that deal.    Whatever it does to the Iranian nuclear program or doesn't do to the Iranian nuclear program, the deal can either hurt or help regional stability. But, again, it is only part of that puzzle. Another, potentially much bigger piece of that, is the question of what the United States does to prepare the groundwork once we have the deal in place. There is a great question mark out there that none of us can answer as to how Iran will behave in the aftermath of a deal. Will they become more aggressive, less aggressive, stay the same? All this matters a great deal. Proponents of the deal make the case that it may be possible after a deal for President Rouhani and Foreign Minister Zarif, who clearly would like a better relationship with the rest of the world and the United States, to forge some kind of a rapprochement building on the political capital that they will accrue from a successful deal. That is a plausible scenario.    Unfortunately, an equally plausible scenario is one in which the Supreme Leader decides that he has got to either throw a sop to his hardliners or else demonstrate to his own constituency that he has not abandoned Khomeini ideology and so becomes more aggressive to demonstrate that he has not lost his revolutionary mojo.    From my perspective, I think that, at least in the short term, it is most likely that Iran's behavior toward the region is going to remain basically the same. I think that over the last 4 years, Iran has put in place a series of policies toward the different countries and problems of the region that suit its interests, its politics, and its capabilities. I don't think that any of those policies were predicated on what did or didn't happen with the nuclear negotiations. And for that reason, I don't see a successful nuclear deal of any kind as fundamentally changing Iran's approach to any of those things. And, unfortunately, Iran's broad policy toward the Middle East is inimical to American interests. It is inimical because the Iranians define it as being inimical to our interests. And more than that, it is destabilizing in a number of very important places, although not all, in the Middle East.    As we are all well aware, and as my copanelists have described, many of our allies in the region, led by the Gulf Cooperation states, are very concerned about how Iran will behave after a deal. They fear that the Iranians will be more emboldened, will be more aggressive. They also fear how the United States will behave after a deal. They are deeply concerned, as Dr. Doran has eloquently pointed out on many occasions, that the United States is going to use a nuclear deal with Iran as a ``get out of the Middle East free'' card, that we will take the deal, announce that we have solved the greatest problem in the Middle East and walk away.    And the great danger is that what we have seen is that when our allies, particularly when the GCC feels frightened, when they feel that they cannot rely on us, their default option is not to accommodate Iran, as many people fear; it is, instead, to get in Iran's face and push back as hard as they can. And the problem there is that the GCC lacks the political and military capacity to do so. And it runs the risk of overstressing its own political and military capabilities with potentially dire repercussions for their own internal stability.    The Yemen war, the recent GCC intervention in Yemen, I think is an eloquent case in point there. It is unprecedented. We have never seen the GCC undertake so massive a unilateral military intervention. It is also incredibly dangerous. They don't know what they are doing. They don't have a plan. They don't know how to get out. They can't do a surge in Iraq, even though they have got themselves stuck in Yemen, exactly the way the United States had gotten itself stuck in Iraq back in 2005, 2006. And that is a very real problem, not just for them but for us.    As my copanelists have pointed out, they are not assuaged by the Camp David Summit or by the administration's statements. The administration continues to plead that they have not disengaged from the region and do not plan to further disengage. But here I have to agree with my GCC colleagues that me thinks the administration doth protest too much, to paraphrase Shakespeare. The administration said it would disengage from the region. It did do so. And it has only partially reengaged when circumstances forced it to do so. And it is now trying to do the minimal possible to sort out the situation.    I am concerned that in the wake of a deal, it is going to require a major American effort to convince the region that we are not walking away, to push back on the Iranians, to let them know that they will not have a free hand in the region, and to reassure our allies so that they do not feel that they need to take on the Iranians themselves in ways that they are simply incapable of doing so. Once again, I see ourselves faced with choosing among the least bad option. And I am reminded that it seems to me that, once again, the Middle East is teaching us the lesson, that whenever we try to minimize our commitments there, the problems of the region simply get worse. And they force us eventually to come back and do more than we had ever intended. Thank you.</t>
   </si>
   <si>
@@ -160,6 +187,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. Thank you so much, Mr. Chairman.    Thank you for excellent testimony.    The only good deal is one in which Iran ceases all enrichment and dismantles its nuclear infrastructure. That is the best way, the only way to ensure that Iran won't be able to create a nuclear weapon, ever. If a deal is signed based on this framework agreement, that means it allows Iran to keep in place every key element of its nuclear infrastructure, preserve its stockpiles of enriched uranium, and keep its equipment and research and development program.    Not only is this agreement, from what we know, a significant step back from what the U.N. Security Council and world powers were demanding from Iran just a few years ago--do we remember that, do we remember those resolutions?--but it is also significantly weaker than even what the President stated emphatically were his lines and his demands, just 1\\1/2\\ years ago. And I have his quotes here if we don't remember.    We don't know much about Iran's possible military dimension. That is frightening. And what about the Parchin military facility, which was the center of Iran's weaponization and military program? We need answers on that. But it is clear that the administration is willing to let that fly.    The Supreme Leader and his puppet Rouhani, because Rouhani will only do what the Supreme Leader says, they are saying that Iran will only sign the nuclear deal if sanctions are lifted the same day. What has the administration offered in terms of sanctions relief and at what scale? We hear a lot of talk about a signing bonus, as if it is the NFL draft, of $50 billion before Iran even has to comply with anything. This is beyond irresponsible and incomprehensible.    And can the agreement be verified? In a word, no. The Iranian regime still controls access to its sites, and we know how good they have been on dodging, on stalling, on misleading, and blocking, and there is no reason to believe that they are going to change. Iran has said it won't allow inspections on its military sites. So guess what will be happening in its military sites?    This whole deal is a fanciful notion and is really a disaster waiting to happen for our national security, for our allies in the regions. And the sad reality is that the only way we are likely to not get this deal is if the Iranians can't take yes for an answer.    Similar to the Palestinians and the Israelis, the Israelis were offering them in many of these peace talks everything to the Palestinians. The Palestinians walked away from the deal. We are better off for it. The only way we are not going to get this deal if the Iranians walk away. Everything about this deal is my most serious concern.    I wanted to ask you in the little time I have remaining about breakout capability. Certainly, 1 year isn't sufficient. We have had many experts tell us it is nearly impossible to even tell when the clock begins, and even when it does, it is next to impossible for the administration to verify that Iran has started breaking out and then send it up to the U.N. Security Council to have that body act. Like most everything else related to this deal, it is just a pipe dream.    Is 10 years enough? And what can you tell us about the about the breakout capability that we are looking at?    Mr. Rademaker.</t>
   </si>
   <si>
@@ -172,6 +205,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Madam Chair.    America's national security is an issue that those of us trusted by the public to serve in Congress must and do take seriously. It is going to take all of us on both sides. But I am going to be positive and think that we will get to a deal that most of us can support. I wanted to look forward.    Saudi Arabia has said that they want the same capabilities as Iran if a deal is reached. Jordan and Egypt have hinted the same as well. Some have cited these examples as the beginning of a nuclear arms race. How serious do you think the regional actors are in pursuing their own nuclear programs? And it is open to all of you.</t>
   </si>
   <si>
@@ -199,6 +238,12 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. Thank you for calling this, again, timely and important hearing.    Welcome to our witnesses.    Based on the outlines of the deal as we know it, President Obama's rush to sign what appears to be an egregiously flawed nuclear deal with Iran may make war more, not less likely, may trigger a nuclear arms race in the region, and surely makes Israel and our other friends and allies in the region and the United States itself less safe.    A sunset clause is one, but this deal appears to be riddled with Achilles' heels. And I think we will wake up too late to that fact because of this rush. It ought to be self-evident that any nuclear agreement must bar every Iranian path to nuclear weapons. This deal must last for decades, not for 15 years or whatever the sunset provision turns out to be. Iran must be compelled to dismantle its current nuclear infrastructure, not merely disconnect centrifuges, no enrichment.    And my friend and colleague from Florida, Ms. Ros-Lehtinen, was right, all of the previous admonishments from the U.N. and Security Council resolutions were no enrichment. That is off the table now. IAEA inspectors must have unfettered access to any and all suspected sites, including military installations.    What a theater of the absurd when during these negotiations high-level people from the very top say: No access to nuclear inspections on military installations. I mean, that is where they will put them.    And let me also ask our distinguished panelists, if there is no deal, or if Iran fails to live up to a deal, say Congress were to go along with it, what happens when they fail to live up to it, which I think we can almost predict with near certainty will be the case.    We are in a position of worldwide comprehensive sanctions. Will they happen? Or will that coalition, is it being dismantled even as we talk? Again, there shouldn't be a lifeline to China for oil, which kept Tehran afloat.    Secretary Rademaker, you bring up a number of great points about the cascade of nuclear proliferation in the Middle East, which I think is the next step. How can they not build up their own deterrence capability in light of an aggressive country like Iran?    And I thought your including Thomas Friedman's comments about ``it is stunning to me how well the Iranians, sitting alone on their side of the table, have played a weak hand against the United States, Russia, China, France, Germany, and Britain on their side of the table. When the time comes, I am hiring Ali Khamenei to sell my house. . . .'' And you talk about how--quoting him--how they should have walked out, say: That is it, there are some bright lines. I mean, the future of millions of people's lives--and what is worse than nuclear bombs--hang in the balance.    And let me also finally ask about, given Iran's long history of supporting terrorist organizations, what is to restrain them from selling materials for dirty bombs to other rogue or to other terrorist organizations?    And, again, we still have four Americans, including Saeed Abedini, being cruelly mistreated while all of this is going on. I have chaired, myself, two hearings. The chairman had a hearing with relatives from each of the four. That too just begs the question of who it is that we are really dealing with. And as you said, the whole idea of those sanctions, especially when we went after the bank, that had a bite, and it should have had a longer bite to get a better deal.    Mr. Rademaker.</t>
   </si>
   <si>
@@ -214,6 +259,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman and ranking member. And I thank the panelists as well.    I am going to reserve judgment on a final deal until we actually see what is in that final deal. But my starting point and my concern is, I don't trust Iran. Right? In any final deal, verification has to be the starting point. I just don't know how you verify if you don't have unfettered access to places.    And, again, if you don't have that verification, as the chairman stated, there should be no signing bonus, right? I mean, you don't get a bonus just for signing the deal. You get a bonus after adhering to the terms of the deal, verifying that, and then over time perhaps you can gain trust. And that is what has me concerned.    I also have very legitimate concerns that as Iran's economy strengthens, what they do with that strength in terms of--many of the members, the ranking member and the chairman, have talked about the funding of terrorism, the funding of Hamas and Hezbollah, and that is a real concern. If we look at the nature of the Middle East and how things are changing dramatically, you can see a scenario where a revitalized Iran, a Shia-dominated Iraq, an Assad who stays in place, Hezbollah and Hamas creating this ring around our allies. And even without nuclear weapons, we see a very unstable Middle East, where I would never have thought that Israel, Egypt, and Saudi Arabia, the unlikeliest of allies, might actually ally against a common threat.    I certainly would be curious about this scenario, even without acquiring nuclear weapons, what a revitalized Iranian economy would look like and how they would use those.    Maybe, Mr. Rademaker, if you would like to.</t>
   </si>
   <si>
@@ -235,6 +286,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank you all for being here today on this extraordinarily important situation that is developing. And amazingly enough, I share the concerns expressed by the editorial of The Washington Post. To quote the Washington Post, and I quote, I want to quote it correctly:        ``If it is reached in the coming days, a nuclear deal         with Iran will be, at best, an unsatisfying and risky         compromise. Iran's emergence as a threshold nuclear         power with the ability to produce a weapon quickly will         not be prevented. It will be postponed by 10 to 15         years. In exchange, Tehran will reap hundreds of         billions of dollars in sanctions relief it can use to         revive its economy and fund the wars it is waging         around the Middle East.''    And, Dr. Makovsky, I sadly agree so much. This is worse than Munich. There might have been, as you were indicating, an explanation for Neville Chamberlain's actions. But I am just very concerned. The President's actions, the weakness that is being exhibited, is just bizarre. And for a President who has been fixated, properly, on not having nuclear proliferation throughout the Middle East, it is creating a legacy of proliferation.    With that in mind, what are the consequences for regional stability if the administration does cave in to Iranian demands?</t>
   </si>
   <si>
@@ -265,6 +322,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    Mr. Rademaker, I am not sure where you are going with that. By the way, the rearmament in Germany in World War II, as a student of history myself, I mean, had a lot more to do than Hitler running circles around inspectors. It had a lot more to do with the fact that the West was just tired and was not going to challenge them. Thus the reoccupation of the Rhineland and the remilitarization, they knew what was happening. He wasn't hiding the fact he was rebuilding an air force and expanding the military with universal conscription and the like, and, clearly, the Ruhr was up and running.    I mean, these were not secrets that were kept from inspectors. It was actually about political will. It was about whether you are going to turn a blind eye to all of that because you were weary of war. And World War I had been so traumatic, especially in France and Britain, that hopefully, wishful thinking would make it all go away, or there would be some modus vivendi we could all accept. They were wrong. Churchill on that one was right. He was wrong on most everything else, but he was right about that.    But what is it you are proposing? Should we therefore say we shouldn't have an inspections regime, we shouldn't have the ability to evaluate, because it is fruitless, people can run rings around them?</t>
   </si>
   <si>
@@ -337,6 +400,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Well, I am going to pick up where Mr. Connolly left off, but he won't be surprised there may be a slight twist on how I hold the blade.    Mr. Rademaker, let me understand a premise that I think you have here, and tell me if I am off, the question of do we take the deal or don't take the deal. The fact is, if the deal is to allow the equivalent of the entire World War II Luftwaffe sitting on the ground with the promise that although the fuel tanks are right next to the planes, they won't fully load the planes and the bombs for 10 years, that is kind of where we are. We are letting them have all the weapon of war, the launch systems, the missiles, the fissile material. What we are saying is, the time it takes to load these aircraft and get them in the air is what we are counting on. Isn't that sort of the equivalent?</t>
   </si>
   <si>
@@ -388,6 +457,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Yes. I would ask the witnesses to give your advice to Congress. We want to control foreign policy, all of us in this room, one way or another. You would like to be advising the President. The President isn't listening to you. You at least have us. If you compare him to Neville Chamberlain, he certainly isn't listening to you. But whatever is going to happen in Vienna in the next 12 hours is going to happen.    So you posit a world in which we walk away from a bad deal, we sign a good, we do this. The President is going to do what he is going to do, and he isn't going to listen to us in the next 12 hours.    So your advice to us has to be: What should Congress do? Not in some mythical world where Dr. Pollack has a time machine, not in some mythical world where Ronald Reagan is resurrected and is the President of the United States on the day we vote on the deal, but rather what do we do if the President says, ``This a reasonable deal, Iran has signed a reasonable deal, and Congress is being unreasonable''? Do we go on a codel to Rome, convince the Italians to prevent Eni from doing business with Iran on a very profitable basis, because, although the President thinks it is a good idea for them to make the profits, some of us think it is a bad idea?    I don't know if any of you want to join us on that codel. I don't think we would be successful. I realize you have comments, but I have got a limited amount of time.    I do want to set the record straight. The Bush administration refused to have sanctions on Iran. We passed a lot of them out of this committee. He blocked them in the United States Senate. And the Iran Sanctions Act was disregarded and violated again and again.    I join with Dr. Pollack in a fear that this is all about a pivot out of the Middle East. The Middle East is frustrating. Confrontation with China is exciting. The Middle East has un-uniformed terrorists. Confrontation with China over islands, that is the kind of war we have had great glory in, especially if we don't wage it, but rather just confront and win it the way we won the war against the Soviet Union.    And right now everything that the Pentagon is doing is figuring out a way to take money away from any forces that might be useful in the Middle East and design new weapons to shoot down Chinese planes over islands--no, they are really just rocks--that don't have any oil, but if they had any oil, the oil would belong to Japan, which by the way, is spending almost nothing on its national defense. That is where we are pivoting to.    This deal needs to be looked at in several phases. The first phase is that first year, where it has good and bad points. We get the stockpiles out of Iran, we get two-thirds of the centrifuges mothballed. And then, as Mr. Rademaker points out, you get to year 12 where it is an absolute disaster. So you have the good, the bad, and the ugly.    The good is those centrifuges and stockpiles. The bad is that they get that $120 billion-plus signing bonus, which they will use for butter, which they will use for graft, they are very good at that, which they will use to kill Sunnis, some of whom deserve to be killed and some of whom definitely do not, and the remainder they will use to attack Israel and the United States.    But the issue before us is: What do we do as a Congress? And we actually shouldn't just say we--it is a very sophisticated question, because we have three possible votes. Do we vote to approve? Do we vote to disapprove? Do we vote to override a Presidential veto of a disapproval resolution? Those are three very different votes. And since the President isn't listening, perhaps you can give advice to us as to how we handle those three circumstances.    The first one is so easy, I won't ask the question, should we vote to approve? If we vote to approve then we have to the greatest extent possible locked the United States into a deal which in year 12 is a nuclear Iran. So we shouldn't do that. The question is, maybe we should vote to disapprove.    The question is, do we override a veto? If we override that veto, then those stockpiles are not shipped out of the country, those centrifuges are not mothballed, and we go to war with Iran in which Congress versus Tehran with the White House on one side or the other, I am not sure.    If the President is telling the world that Iran has signed a reasonable deal and deserves sanctions relief, what should Congress do? Dr. Pollack.</t>
   </si>
   <si>
@@ -460,6 +535,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    And thank you all for being here.    If I understand, the policy of the U.S. goes back all the way to the Carter administration, that, as you said, Mr. Doran--or is it Doran?</t>
   </si>
   <si>
@@ -487,6 +568,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair.    First, Mr. Chair, I would just like to say thank you to Josh Cohen. This is his last full committee. He has been my adviser. He has done a great job. He is going off to Harvard, to the Kennedy School. And we wish him well.    Well, this has been a very troubling discussion. First of all, thank you all for sharing. I mean, you can't help but after listening to all this feel a lot of anxiety. So, first, I want to ask a hypothetical, if it is possible for you to answer, which is I think we went into this, the P5+1, I think it was November 2013 when they first agreed to the plan that is, this temporary plan that is currently in place, and then it began in January 2014. Had this joint plan not been in place, do you think by now we would have had to take military action to stop a nuclear weapon?</t>
   </si>
   <si>
@@ -526,6 +613,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Gentlemen, here we are again. As usual, I have to spend some of my time--I wish Mr. Connolly were still here so, as a student of history, I could remind him of something because I am sure he knows it, but I am always amazed by what I hear here. One of the first things that amazed me was that George Bush is responsible, and he is responsible because we didn't go to war with Iran from the same people that complain daily bitterly that we went to a war with Iraq and Afghanistan.    And then I hear that a veto override by a Republican Congress is tantamount to a declaration of war with Iran. So I guess we can be prepared for that narrative.    And, finally, I would like to remind Mr. Connolly that it was the Clinton administration, as I remember, in May 1998 that waived the sanctions, the Iran-Libya Sanctions Act, which resulted in an increase in Iran's terrorism, nuclear proliferation, and European investment in Iran. So I will have to remind him of that on the floor.    I do have a couple questions. If you can tell me, gentlemen, what are the consequences for regional stability if the administration were to cave to the Iranian demands to lift the U.N. arms embargo?    Go ahead, Mr. Doran.</t>
   </si>
   <si>
@@ -559,6 +652,9 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.    Gentlemen, I appreciate you being here. Let me start off with a question. Do you believe that in the wake of an agreement, the administration will push to delist the Iranian Revolutionary Guard as a proliferator? Dr. Doran?</t>
   </si>
   <si>
@@ -629,6 +725,12 @@
   </si>
   <si>
     <t>412636</t>
+  </si>
+  <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all the panelists for your time this morning. And I appreciate you sticking around for, I think I am the last person. I have only been here 6 months, so I get to ask my questions last.    Mr. Sherman made a comment that no one in the White House is listening to us. I believe that is true. So, in many respects, this hearing is all about trying to draw attention through your insightful comments to the deal that is about to get done and draw the American public's attention to it.    And Mr. Yoho asked my question, so I will change it a little bit. If a deal gets done, isn't the 30-second sound bite headline, ``A Done Deal: Iran Will Have a Nuclear Weapon in 10 or 12 Years''? Isn't that the takeaway from where we are at today? And Mr. Yoho, he said they are going to cheat. Let's assume they don't cheat. So, in 12 years, they are going to have a nuclear weapon. Isn't that the short summary for the evening news?</t>
@@ -1025,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1135,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,4733 +1157,5543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
       <c r="H44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G63" t="s">
+        <v>90</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>102</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G75" t="s">
+        <v>102</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
       <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>102</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>102</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>102</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G89" t="s">
+        <v>128</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>128</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G105" t="s">
+        <v>147</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G107" t="s">
+        <v>147</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G109" t="s">
+        <v>147</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G113" t="s">
+        <v>147</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G115" t="s">
+        <v>147</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G117" t="s">
+        <v>147</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>123</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G119" t="s">
+        <v>147</v>
+      </c>
       <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>123</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
       <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>123</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
       <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>123</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>72</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G127" t="s">
+        <v>90</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G128" t="s">
+        <v>173</v>
+      </c>
       <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G130" t="s">
+        <v>173</v>
+      </c>
       <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G132" t="s">
+        <v>173</v>
+      </c>
       <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>147</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G134" t="s">
+        <v>173</v>
+      </c>
       <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>72</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G135" t="s">
+        <v>90</v>
+      </c>
       <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>156</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G136" t="s">
+        <v>184</v>
+      </c>
       <c r="H136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G138" t="s">
+        <v>184</v>
+      </c>
       <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G140" t="s">
+        <v>184</v>
+      </c>
       <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G142" t="s">
+        <v>184</v>
+      </c>
       <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>156</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G144" t="s">
+        <v>184</v>
+      </c>
       <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>156</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G146" t="s">
+        <v>184</v>
+      </c>
       <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>72</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G147" t="s">
+        <v>90</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>169</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G148" t="s">
+        <v>199</v>
+      </c>
       <c r="H148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G150" t="s">
+        <v>199</v>
+      </c>
       <c r="H150" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I150" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>169</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G152" t="s">
+        <v>199</v>
+      </c>
       <c r="H152" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I152" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>169</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G154" t="s">
+        <v>199</v>
+      </c>
       <c r="H154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>169</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G156" t="s">
+        <v>199</v>
+      </c>
       <c r="H156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I156" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>72</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G157" t="s">
+        <v>90</v>
+      </c>
       <c r="H157" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G158" t="s">
+        <v>212</v>
+      </c>
       <c r="H158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G160" t="s">
+        <v>212</v>
+      </c>
       <c r="H160" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G162" t="s">
+        <v>212</v>
+      </c>
       <c r="H162" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G164" t="s">
+        <v>212</v>
+      </c>
       <c r="H164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G166" t="s">
+        <v>212</v>
+      </c>
       <c r="H166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G168" t="s">
+        <v>212</v>
+      </c>
       <c r="H168" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G170" t="s">
+        <v>212</v>
+      </c>
       <c r="H170" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>180</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G172" t="s">
+        <v>212</v>
+      </c>
       <c r="H172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>180</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G174" t="s">
+        <v>212</v>
+      </c>
       <c r="H174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>180</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G176" t="s">
+        <v>212</v>
+      </c>
       <c r="H176" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>31</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>180</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G180" t="s">
+        <v>212</v>
+      </c>
       <c r="H180" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I180" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>72</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G181" t="s">
+        <v>90</v>
+      </c>
       <c r="H181" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I181" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>204</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G182" t="s">
+        <v>237</v>
+      </c>
       <c r="H182" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I182" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>204</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G184" t="s">
+        <v>237</v>
+      </c>
       <c r="H184" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I184" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>204</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G186" t="s">
+        <v>237</v>
+      </c>
       <c r="H186" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I186" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>204</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G190" t="s">
+        <v>237</v>
+      </c>
       <c r="H190" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>204</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G192" t="s">
+        <v>237</v>
+      </c>
       <c r="H192" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>204</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G194" t="s">
+        <v>237</v>
+      </c>
       <c r="H194" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>204</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G196" t="s">
+        <v>237</v>
+      </c>
       <c r="H196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>72</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G198" t="s">
+        <v>90</v>
+      </c>
       <c r="H198" t="s">
-        <v>220</v>
+        <v>91</v>
+      </c>
+      <c r="I198" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95422.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
   </si>
   <si>
     <t>400344</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ros-Lehtinen</t>
@@ -1127,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,7 +1147,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,5540 +1172,5956 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G83" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G89" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H89" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H91" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H105" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H107" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H109" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>28</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G127" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H127" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I127" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G128" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G130" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H130" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G132" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H132" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G134" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G135" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H135" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H136" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G138" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H138" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>25</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H140" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G142" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H142" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G144" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>31</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G146" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I146" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G147" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H147" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I147" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G148" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H148" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>22</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G150" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I150" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>22</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G152" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H152" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>25</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G154" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H154" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I154" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J154" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>25</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G156" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I156" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H157" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I157" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G158" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I158" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>22</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>25</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G160" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I160" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J160" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G162" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H162" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G164" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H164" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I164" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>28</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G166" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H166" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I166" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J166" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>31</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G168" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H168" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I168" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>28</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G170" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H170" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I170" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>28</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G172" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H172" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I172" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>25</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G174" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H174" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I174" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J174" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G176" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H176" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I176" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J176" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>34</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>22</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>25</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>28</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G180" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="H180" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="I180" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J180" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G181" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H181" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I181" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J181" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G182" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H182" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I182" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J182" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>28</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>31</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G184" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H184" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I184" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J184" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>22</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>25</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G186" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H186" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I186" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J186" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>22</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>25</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>25</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>28</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G190" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H190" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I190" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J190" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>28</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G192" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H192" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I192" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J192" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>31</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G194" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H194" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I194" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J194" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>34</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G196" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H196" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J196" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>34</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G198" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H198" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I198" t="s">
-        <v>254</v>
+        <v>95</v>
+      </c>
+      <c r="J198" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
